--- a/node-central/equipos.xlsx
+++ b/node-central/equipos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\IPS%20Central\node-central\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FCF6EB-5A68-42C5-96C9-FCFF222F5B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3FD4BA-7526-423D-9B77-EB002C3BFCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="226">
   <si>
     <t>Sum(BillHrs)</t>
   </si>
@@ -697,6 +697,21 @@
   </si>
   <si>
     <t>Dorian Garcia</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>FSX</t>
+  </si>
+  <si>
+    <t>SFT - Knowledge Transfer and Documentation 2</t>
+  </si>
+  <si>
+    <t>SFT - Knowledge Transfer and Documentation 3</t>
+  </si>
+  <si>
+    <t>SFT - Knowledge Transfer and Documentation 4</t>
   </si>
 </sst>
 </file>
@@ -706,7 +721,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#.0#############E+###"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,6 +733,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -770,19 +791,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72:C75"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,40 +1158,40 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1187,40 +1202,40 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1237,51 +1252,51 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
@@ -1324,14 +1339,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
@@ -1374,14 +1389,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
@@ -1424,14 +1439,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
@@ -1474,14 +1489,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
@@ -1524,14 +1539,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
@@ -1574,14 +1589,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
@@ -1624,14 +1639,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
@@ -1674,14 +1689,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
@@ -1724,14 +1739,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
@@ -1774,14 +1789,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
@@ -1824,14 +1839,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
@@ -1874,14 +1889,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
@@ -1925,13 +1940,13 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
@@ -1975,13 +1990,13 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18" t="s">
@@ -2025,13 +2040,13 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" t="s">
@@ -2075,13 +2090,13 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
@@ -2125,13 +2140,13 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
@@ -2175,13 +2190,13 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>29</v>
       </c>
       <c r="D22" t="s">
@@ -2225,13 +2240,13 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="s">
@@ -2275,13 +2290,13 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24" t="s">
@@ -2325,13 +2340,13 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
@@ -2375,13 +2390,13 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>29</v>
       </c>
       <c r="D26" t="s">
@@ -2425,13 +2440,13 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
@@ -2475,13 +2490,13 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28" t="s">
@@ -2525,13 +2540,13 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>29</v>
       </c>
       <c r="D29" t="s">
@@ -2575,13 +2590,13 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>29</v>
       </c>
       <c r="D30" t="s">
@@ -2625,13 +2640,13 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31" t="s">
@@ -2675,13 +2690,13 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32" t="s">
@@ -2725,13 +2740,13 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>42</v>
       </c>
       <c r="D33" t="s">
@@ -2775,13 +2790,13 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>42</v>
       </c>
       <c r="D34" t="s">
@@ -2825,13 +2840,13 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>42</v>
       </c>
       <c r="D35" t="s">
@@ -2875,11 +2890,14 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
@@ -2922,10 +2940,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>47</v>
       </c>
       <c r="C37" t="s">
@@ -2972,13 +2990,13 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" t="s">
@@ -3022,13 +3040,13 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>50</v>
       </c>
       <c r="D39" t="s">
@@ -3072,13 +3090,13 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>50</v>
       </c>
       <c r="D40" t="s">
@@ -3122,13 +3140,13 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>50</v>
       </c>
       <c r="D41" t="s">
@@ -3172,13 +3190,13 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>50</v>
       </c>
       <c r="D42" t="s">
@@ -3222,13 +3240,13 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>50</v>
       </c>
       <c r="D43" t="s">
@@ -3272,13 +3290,13 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>50</v>
       </c>
       <c r="D44" t="s">
@@ -3322,13 +3340,13 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>50</v>
       </c>
       <c r="D45" t="s">
@@ -3372,13 +3390,13 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>50</v>
       </c>
       <c r="D46" t="s">
@@ -3422,13 +3440,13 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>50</v>
       </c>
       <c r="D47" t="s">
@@ -3472,13 +3490,13 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>50</v>
       </c>
       <c r="D48" t="s">
@@ -3522,13 +3540,13 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>51</v>
       </c>
       <c r="D49" t="s">
@@ -3572,13 +3590,13 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>59</v>
       </c>
       <c r="D50" t="s">
@@ -3622,13 +3640,13 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>59</v>
       </c>
       <c r="D51" t="s">
@@ -3672,13 +3690,13 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>59</v>
       </c>
       <c r="D52" t="s">
@@ -3722,13 +3740,13 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>59</v>
       </c>
       <c r="D53" t="s">
@@ -3772,13 +3790,13 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>59</v>
       </c>
       <c r="D54" t="s">
@@ -3822,13 +3840,13 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>51</v>
       </c>
       <c r="D55" t="s">
@@ -3872,13 +3890,13 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>61</v>
       </c>
       <c r="D56" t="s">
@@ -3922,13 +3940,13 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>61</v>
       </c>
       <c r="D57" t="s">
@@ -3972,13 +3990,13 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>61</v>
       </c>
       <c r="D58" t="s">
@@ -4022,13 +4040,13 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>61</v>
       </c>
       <c r="D59" t="s">
@@ -4072,13 +4090,13 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="A60" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60" t="s">
@@ -4122,13 +4140,13 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>61</v>
       </c>
       <c r="D61" t="s">
@@ -4172,13 +4190,13 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
         <v>61</v>
       </c>
       <c r="D62" t="s">
@@ -4222,13 +4240,13 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>61</v>
       </c>
       <c r="D63" t="s">
@@ -4272,13 +4290,13 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" t="s">
         <v>61</v>
       </c>
       <c r="D64" t="s">
@@ -4322,13 +4340,13 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>61</v>
       </c>
       <c r="D65" t="s">
@@ -4372,13 +4390,13 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" t="s">
         <v>65</v>
       </c>
       <c r="D66" t="s">
@@ -4422,13 +4440,13 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" t="s">
         <v>64</v>
       </c>
       <c r="D67" t="s">
@@ -4472,13 +4490,13 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" t="s">
         <v>49</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>64</v>
       </c>
       <c r="D68" t="s">
@@ -4522,13 +4540,13 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" t="s">
         <v>64</v>
       </c>
       <c r="D69" t="s">
@@ -4572,13 +4590,13 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" t="s">
         <v>64</v>
       </c>
       <c r="D70" t="s">
@@ -4622,13 +4640,13 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>64</v>
       </c>
       <c r="D71" t="s">
@@ -4672,11 +4690,13 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="4" t="s">
+      <c r="A72" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" t="s">
         <v>68</v>
       </c>
       <c r="D72" t="s">
@@ -4720,11 +4740,13 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="4" t="s">
+      <c r="A73" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" t="s">
         <v>67</v>
       </c>
       <c r="D73" t="s">
@@ -4768,11 +4790,13 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="4" t="s">
+      <c r="A74" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" t="s">
         <v>67</v>
       </c>
       <c r="D74" t="s">
@@ -4816,11 +4840,13 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="4" t="s">
+      <c r="A75" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" t="s">
         <v>67</v>
       </c>
       <c r="D75" t="s">
@@ -4864,11 +4890,13 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="4" t="s">
+      <c r="A76" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" t="s">
         <v>72</v>
       </c>
       <c r="D76" t="s">
@@ -4912,11 +4940,13 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="4" t="s">
+      <c r="A77" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s">
         <v>71</v>
       </c>
       <c r="D77" t="s">
@@ -4960,11 +4990,13 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="4" t="s">
+      <c r="A78" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" t="s">
         <v>71</v>
       </c>
       <c r="D78" t="s">
@@ -5008,11 +5040,13 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="4" t="s">
+      <c r="A79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" t="s">
         <v>71</v>
       </c>
       <c r="D79" t="s">
@@ -5056,11 +5090,13 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="4" t="s">
+      <c r="A80" t="s">
+        <v>221</v>
+      </c>
+      <c r="B80" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" t="s">
         <v>71</v>
       </c>
       <c r="D80" t="s">
@@ -5104,11 +5140,13 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="4" t="s">
+      <c r="A81" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" t="s">
         <v>71</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" t="s">
         <v>71</v>
       </c>
       <c r="D81" t="s">
@@ -5152,11 +5190,13 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="4" t="s">
+      <c r="A82" t="s">
+        <v>221</v>
+      </c>
+      <c r="B82" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" t="s">
         <v>71</v>
       </c>
       <c r="D82" t="s">
@@ -5200,11 +5240,13 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="4" t="s">
+      <c r="A83" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" t="s">
         <v>71</v>
       </c>
       <c r="D83" t="s">
@@ -5248,11 +5290,13 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="4" t="s">
+      <c r="A84" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" t="s">
         <v>71</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" t="s">
         <v>71</v>
       </c>
       <c r="D84" t="s">
@@ -5296,11 +5340,13 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="4" t="s">
+      <c r="A85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" t="s">
         <v>71</v>
       </c>
       <c r="D85" t="s">
@@ -5344,11 +5390,13 @@
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="4" t="s">
+      <c r="A86" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" t="s">
         <v>71</v>
       </c>
       <c r="D86" t="s">
@@ -5392,11 +5440,13 @@
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="4" t="s">
+      <c r="A87" t="s">
+        <v>221</v>
+      </c>
+      <c r="B87" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" t="s">
         <v>71</v>
       </c>
       <c r="D87" t="s">
@@ -5440,11 +5490,13 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="4" t="s">
+      <c r="A88" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" t="s">
         <v>78</v>
       </c>
       <c r="D88" t="s">
@@ -5488,11 +5540,13 @@
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="4" t="s">
+      <c r="A89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" t="s">
         <v>79</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" t="s">
         <v>79</v>
       </c>
       <c r="D89" t="s">
@@ -5536,11 +5590,13 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="4" t="s">
+      <c r="A90" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" t="s">
         <v>79</v>
       </c>
       <c r="D90" t="s">
@@ -5584,11 +5640,13 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="4" t="s">
+      <c r="A91" t="s">
+        <v>221</v>
+      </c>
+      <c r="B91" t="s">
         <v>79</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" t="s">
         <v>79</v>
       </c>
       <c r="D91" t="s">
@@ -5632,11 +5690,13 @@
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="4" t="s">
+      <c r="A92" t="s">
+        <v>221</v>
+      </c>
+      <c r="B92" t="s">
         <v>79</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" t="s">
         <v>79</v>
       </c>
       <c r="D92" t="s">
@@ -5680,11 +5740,13 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="4" t="s">
+      <c r="A93" t="s">
+        <v>221</v>
+      </c>
+      <c r="B93" t="s">
         <v>79</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" t="s">
         <v>79</v>
       </c>
       <c r="D93" t="s">
@@ -5728,11 +5790,13 @@
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="4" t="s">
+      <c r="A94" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" t="s">
         <v>68</v>
       </c>
       <c r="D94" t="s">
@@ -5776,11 +5840,13 @@
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="4" t="s">
+      <c r="A95" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" t="s">
         <v>83</v>
       </c>
       <c r="D95" t="s">
@@ -5824,13 +5890,13 @@
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" t="s">
         <v>85</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" t="s">
         <v>86</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" t="s">
         <v>77</v>
       </c>
       <c r="D96" t="s">
@@ -5874,13 +5940,13 @@
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" t="s">
         <v>86</v>
       </c>
       <c r="D97" t="s">
@@ -5924,13 +5990,13 @@
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" t="s">
         <v>87</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" t="s">
         <v>89</v>
       </c>
       <c r="D98" t="s">
@@ -5974,13 +6040,13 @@
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" t="s">
         <v>88</v>
       </c>
       <c r="D99" t="s">
@@ -6024,13 +6090,13 @@
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" t="s">
         <v>88</v>
       </c>
       <c r="D100" t="s">
@@ -6074,13 +6140,13 @@
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" t="s">
         <v>87</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" t="s">
         <v>88</v>
       </c>
       <c r="D101" t="s">
@@ -6124,13 +6190,13 @@
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" t="s">
         <v>87</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" t="s">
         <v>88</v>
       </c>
       <c r="D102" t="s">
@@ -6174,13 +6240,13 @@
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="A103" t="s">
         <v>91</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" t="s">
         <v>93</v>
       </c>
       <c r="D103" t="s">
@@ -6224,13 +6290,13 @@
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="A104" t="s">
         <v>91</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" t="s">
         <v>92</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" t="s">
         <v>92</v>
       </c>
       <c r="D104" t="s">
@@ -6274,13 +6340,13 @@
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" t="s">
         <v>91</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" t="s">
         <v>92</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" t="s">
         <v>92</v>
       </c>
       <c r="D105" t="s">
@@ -6324,13 +6390,13 @@
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" t="s">
         <v>91</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" t="s">
         <v>92</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" t="s">
         <v>92</v>
       </c>
       <c r="D106" t="s">
@@ -6374,13 +6440,13 @@
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" t="s">
         <v>91</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" t="s">
         <v>92</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" t="s">
         <v>92</v>
       </c>
       <c r="D107" t="s">
@@ -6424,13 +6490,13 @@
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="A108" t="s">
         <v>91</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" t="s">
         <v>92</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" t="s">
         <v>92</v>
       </c>
       <c r="D108" t="s">
@@ -6474,13 +6540,13 @@
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="A109" t="s">
         <v>91</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" t="s">
         <v>92</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" t="s">
         <v>92</v>
       </c>
       <c r="D109" t="s">
@@ -6524,13 +6590,13 @@
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="A110" t="s">
         <v>91</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" t="s">
         <v>92</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" t="s">
         <v>92</v>
       </c>
       <c r="D110" t="s">
@@ -6574,11 +6640,13 @@
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="4" t="s">
+      <c r="A111" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
         <v>99</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" t="s">
         <v>100</v>
       </c>
       <c r="D111" t="s">
@@ -6622,11 +6690,13 @@
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="4" t="s">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
         <v>99</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" t="s">
         <v>99</v>
       </c>
       <c r="D112" t="s">
@@ -6670,11 +6740,13 @@
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
-      <c r="B113" s="4" t="s">
+      <c r="A113" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" t="s">
         <v>99</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" t="s">
         <v>99</v>
       </c>
       <c r="D113" t="s">
@@ -6718,11 +6790,13 @@
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="4" t="s">
+      <c r="A114" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" t="s">
         <v>103</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" t="s">
         <v>100</v>
       </c>
       <c r="D114" t="s">
@@ -6766,11 +6840,13 @@
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="B115" s="4" t="s">
+      <c r="A115" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" t="s">
         <v>103</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" t="s">
         <v>103</v>
       </c>
       <c r="D115" t="s">
@@ -6814,11 +6890,13 @@
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-      <c r="B116" s="4" t="s">
+      <c r="A116" t="s">
+        <v>222</v>
+      </c>
+      <c r="B116" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" t="s">
         <v>103</v>
       </c>
       <c r="D116" t="s">
@@ -6862,11 +6940,13 @@
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-      <c r="B117" s="4" t="s">
+      <c r="A117" t="s">
+        <v>222</v>
+      </c>
+      <c r="B117" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" t="s">
         <v>100</v>
       </c>
       <c r="D117" t="s">
@@ -6910,11 +6990,13 @@
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
-      <c r="B118" s="4" t="s">
+      <c r="A118" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" t="s">
         <v>105</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" t="s">
         <v>105</v>
       </c>
       <c r="D118" t="s">
@@ -6958,11 +7040,13 @@
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="4" t="s">
+      <c r="A119" t="s">
+        <v>222</v>
+      </c>
+      <c r="B119" t="s">
         <v>106</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" t="s">
         <v>100</v>
       </c>
       <c r="D119" t="s">
@@ -7006,11 +7090,13 @@
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="4" t="s">
+      <c r="A120" t="s">
+        <v>222</v>
+      </c>
+      <c r="B120" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" t="s">
         <v>106</v>
       </c>
       <c r="D120" t="s">
@@ -7054,11 +7140,13 @@
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="4" t="s">
+      <c r="A121" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" t="s">
         <v>106</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" t="s">
         <v>106</v>
       </c>
       <c r="D121" t="s">
@@ -7102,11 +7190,13 @@
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="4" t="s">
+      <c r="A122" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" t="s">
         <v>106</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" t="s">
         <v>106</v>
       </c>
       <c r="D122" t="s">
@@ -7150,11 +7240,13 @@
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
-      <c r="B123" s="4" t="s">
+      <c r="A123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B123" t="s">
         <v>107</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" t="s">
         <v>100</v>
       </c>
       <c r="D123" t="s">
@@ -7198,11 +7290,13 @@
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" s="4" t="s">
+      <c r="A124" t="s">
+        <v>222</v>
+      </c>
+      <c r="B124" t="s">
         <v>107</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" t="s">
         <v>107</v>
       </c>
       <c r="D124" t="s">
@@ -7246,11 +7340,13 @@
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="B125" s="4" t="s">
+      <c r="A125" t="s">
+        <v>222</v>
+      </c>
+      <c r="B125" t="s">
         <v>108</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" t="s">
         <v>100</v>
       </c>
       <c r="D125" t="s">
@@ -7294,11 +7390,13 @@
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
-      <c r="B126" s="4" t="s">
+      <c r="A126" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" t="s">
         <v>108</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" t="s">
         <v>108</v>
       </c>
       <c r="D126" t="s">
@@ -7342,11 +7440,13 @@
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
-      <c r="B127" s="4" t="s">
+      <c r="A127" t="s">
+        <v>222</v>
+      </c>
+      <c r="B127" t="s">
         <v>108</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" t="s">
         <v>108</v>
       </c>
       <c r="D127" t="s">
@@ -7390,11 +7490,13 @@
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
-      <c r="B128" s="4" t="s">
+      <c r="A128" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" t="s">
         <v>108</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" t="s">
         <v>108</v>
       </c>
       <c r="D128" t="s">
@@ -7438,11 +7540,13 @@
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="4" t="s">
+      <c r="A129" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" t="s">
         <v>108</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" t="s">
         <v>108</v>
       </c>
       <c r="D129" t="s">
@@ -7486,11 +7590,13 @@
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="4" t="s">
+      <c r="A130" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" t="s">
         <v>109</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" t="s">
         <v>100</v>
       </c>
       <c r="D130" t="s">
@@ -7534,11 +7640,13 @@
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
-      <c r="B131" s="4" t="s">
+      <c r="A131" t="s">
+        <v>222</v>
+      </c>
+      <c r="B131" t="s">
         <v>109</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" t="s">
         <v>109</v>
       </c>
       <c r="D131" t="s">
@@ -7582,11 +7690,13 @@
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
-      <c r="B132" s="4" t="s">
+      <c r="A132" t="s">
+        <v>222</v>
+      </c>
+      <c r="B132" t="s">
         <v>110</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" t="s">
         <v>100</v>
       </c>
       <c r="D132" t="s">
@@ -7630,11 +7740,13 @@
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="6"/>
-      <c r="B133" s="4" t="s">
+      <c r="A133" t="s">
+        <v>222</v>
+      </c>
+      <c r="B133" t="s">
         <v>110</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" t="s">
         <v>110</v>
       </c>
       <c r="D133" t="s">
@@ -7678,11 +7790,13 @@
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
-      <c r="B134" s="4" t="s">
+      <c r="A134" t="s">
+        <v>222</v>
+      </c>
+      <c r="B134" t="s">
         <v>111</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" t="s">
         <v>100</v>
       </c>
       <c r="D134" t="s">
@@ -7726,11 +7840,13 @@
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="6"/>
-      <c r="B135" s="4" t="s">
+      <c r="A135" t="s">
+        <v>222</v>
+      </c>
+      <c r="B135" t="s">
         <v>111</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" t="s">
         <v>111</v>
       </c>
       <c r="D135" t="s">
@@ -7774,11 +7890,13 @@
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="6"/>
-      <c r="B136" s="4" t="s">
+      <c r="A136" t="s">
+        <v>222</v>
+      </c>
+      <c r="B136" t="s">
         <v>111</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" t="s">
         <v>111</v>
       </c>
       <c r="D136" t="s">
@@ -7822,13 +7940,13 @@
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" t="s">
         <v>112</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" t="s">
         <v>113</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" t="s">
         <v>114</v>
       </c>
       <c r="D137" t="s">
@@ -7872,13 +7990,13 @@
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+      <c r="A138" t="s">
         <v>112</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" t="s">
         <v>113</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" t="s">
         <v>113</v>
       </c>
       <c r="D138" t="s">
@@ -7922,13 +8040,13 @@
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
+      <c r="A139" t="s">
         <v>112</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" t="s">
         <v>113</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" t="s">
         <v>113</v>
       </c>
       <c r="D139" t="s">
@@ -7972,13 +8090,13 @@
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="A140" t="s">
         <v>112</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" t="s">
         <v>116</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" t="s">
         <v>117</v>
       </c>
       <c r="D140" t="s">
@@ -8022,13 +8140,13 @@
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+      <c r="A141" t="s">
         <v>112</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" t="s">
         <v>116</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" t="s">
         <v>116</v>
       </c>
       <c r="D141" t="s">
@@ -8072,13 +8190,13 @@
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="A142" t="s">
         <v>112</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" t="s">
         <v>116</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" t="s">
         <v>116</v>
       </c>
       <c r="D142" t="s">
@@ -8122,13 +8240,13 @@
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="A143" t="s">
         <v>112</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" t="s">
         <v>116</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" t="s">
         <v>116</v>
       </c>
       <c r="D143" t="s">
@@ -8172,13 +8290,13 @@
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="A144" t="s">
         <v>112</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" t="s">
         <v>120</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" t="s">
         <v>54</v>
       </c>
       <c r="D144" t="s">
@@ -8222,13 +8340,13 @@
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="A145" t="s">
         <v>112</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" t="s">
         <v>120</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" t="s">
         <v>120</v>
       </c>
       <c r="D145" t="s">
@@ -8272,13 +8390,13 @@
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="A146" t="s">
         <v>112</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" t="s">
         <v>120</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" t="s">
         <v>120</v>
       </c>
       <c r="D146" t="s">
@@ -8322,13 +8440,13 @@
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="A147" t="s">
         <v>112</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" t="s">
         <v>120</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" t="s">
         <v>120</v>
       </c>
       <c r="D147" t="s">
@@ -8372,13 +8490,13 @@
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+      <c r="A148" t="s">
         <v>112</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" t="s">
         <v>120</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" t="s">
         <v>120</v>
       </c>
       <c r="D148" t="s">
@@ -8422,13 +8540,13 @@
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+      <c r="A149" t="s">
         <v>112</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" t="s">
         <v>120</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" t="s">
         <v>120</v>
       </c>
       <c r="D149" t="s">
@@ -8472,13 +8590,13 @@
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="A150" t="s">
         <v>112</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" t="s">
         <v>120</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" t="s">
         <v>120</v>
       </c>
       <c r="D150" t="s">
@@ -8522,13 +8640,13 @@
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="A151" t="s">
         <v>112</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" t="s">
         <v>120</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" t="s">
         <v>120</v>
       </c>
       <c r="D151" t="s">
@@ -8572,13 +8690,13 @@
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="A152" t="s">
         <v>112</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" t="s">
         <v>120</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" t="s">
         <v>120</v>
       </c>
       <c r="D152" t="s">
@@ -8622,13 +8740,13 @@
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="A153" t="s">
         <v>112</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" t="s">
         <v>120</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" t="s">
         <v>120</v>
       </c>
       <c r="D153" t="s">
@@ -8672,13 +8790,13 @@
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="A154" t="s">
         <v>112</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" t="s">
         <v>120</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" t="s">
         <v>120</v>
       </c>
       <c r="D154" t="s">
@@ -8722,13 +8840,13 @@
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+      <c r="A155" t="s">
         <v>112</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" t="s">
         <v>120</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" t="s">
         <v>120</v>
       </c>
       <c r="D155" t="s">
@@ -8772,13 +8890,13 @@
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+      <c r="A156" t="s">
         <v>112</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" t="s">
         <v>120</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" t="s">
         <v>120</v>
       </c>
       <c r="D156" t="s">
@@ -8822,13 +8940,13 @@
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="A157" t="s">
         <v>112</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" t="s">
         <v>120</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" t="s">
         <v>120</v>
       </c>
       <c r="D157" t="s">
@@ -8872,13 +8990,13 @@
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
+      <c r="A158" t="s">
         <v>112</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" t="s">
         <v>120</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" t="s">
         <v>120</v>
       </c>
       <c r="D158" t="s">
@@ -8922,13 +9040,13 @@
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
+      <c r="A159" t="s">
         <v>112</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" t="s">
         <v>120</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" t="s">
         <v>120</v>
       </c>
       <c r="D159" t="s">
@@ -8972,13 +9090,13 @@
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="A160" t="s">
         <v>112</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" t="s">
         <v>126</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" t="s">
         <v>81</v>
       </c>
       <c r="D160" t="s">
@@ -9022,13 +9140,13 @@
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
+      <c r="A161" t="s">
         <v>112</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" t="s">
         <v>126</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" t="s">
         <v>126</v>
       </c>
       <c r="D161" t="s">
@@ -9072,13 +9190,13 @@
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
+      <c r="A162" t="s">
         <v>112</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" t="s">
         <v>126</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" t="s">
         <v>126</v>
       </c>
       <c r="D162" t="s">
@@ -9122,13 +9240,13 @@
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
+      <c r="A163" t="s">
         <v>112</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" t="s">
         <v>126</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" t="s">
         <v>126</v>
       </c>
       <c r="D163" t="s">
@@ -9172,13 +9290,13 @@
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="A164" t="s">
         <v>112</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" t="s">
         <v>126</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" t="s">
         <v>126</v>
       </c>
       <c r="D164" t="s">
@@ -9222,13 +9340,13 @@
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
+      <c r="A165" t="s">
         <v>112</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" t="s">
         <v>126</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" t="s">
         <v>126</v>
       </c>
       <c r="D165" t="s">
@@ -9272,13 +9390,13 @@
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="A166" t="s">
         <v>112</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" t="s">
         <v>126</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" t="s">
         <v>126</v>
       </c>
       <c r="D166" t="s">
@@ -9322,13 +9440,13 @@
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" t="s">
         <v>112</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" t="s">
         <v>126</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" t="s">
         <v>126</v>
       </c>
       <c r="D167" t="s">
@@ -9372,13 +9490,13 @@
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+      <c r="A168" t="s">
         <v>112</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" t="s">
         <v>126</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C168" t="s">
         <v>126</v>
       </c>
       <c r="D168" t="s">
@@ -9422,13 +9540,13 @@
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+      <c r="A169" t="s">
         <v>112</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" t="s">
         <v>126</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" t="s">
         <v>126</v>
       </c>
       <c r="D169" t="s">
@@ -9472,13 +9590,13 @@
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
+      <c r="A170" t="s">
         <v>112</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" t="s">
         <v>126</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" t="s">
         <v>126</v>
       </c>
       <c r="D170" t="s">
@@ -9522,13 +9640,13 @@
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
+      <c r="A171" t="s">
         <v>112</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" t="s">
         <v>130</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" t="s">
         <v>81</v>
       </c>
       <c r="D171" t="s">
@@ -9572,13 +9690,13 @@
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
+      <c r="A172" t="s">
         <v>112</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" t="s">
         <v>130</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" t="s">
         <v>130</v>
       </c>
       <c r="D172" t="s">
@@ -9622,13 +9740,13 @@
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
+      <c r="A173" t="s">
         <v>112</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" t="s">
         <v>130</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" t="s">
         <v>130</v>
       </c>
       <c r="D173" t="s">
@@ -9672,13 +9790,13 @@
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
+      <c r="A174" t="s">
         <v>112</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" t="s">
         <v>130</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" t="s">
         <v>130</v>
       </c>
       <c r="D174" t="s">
@@ -9722,13 +9840,13 @@
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
+      <c r="A175" t="s">
         <v>112</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" t="s">
         <v>130</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" t="s">
         <v>130</v>
       </c>
       <c r="D175" t="s">
@@ -9772,13 +9890,13 @@
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
+      <c r="A176" t="s">
         <v>112</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" t="s">
         <v>133</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" t="s">
         <v>21</v>
       </c>
       <c r="D176" t="s">
@@ -9822,13 +9940,13 @@
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" t="s">
         <v>112</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" t="s">
         <v>133</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" t="s">
         <v>133</v>
       </c>
       <c r="D177" t="s">
@@ -9872,13 +9990,13 @@
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
+      <c r="A178" t="s">
         <v>112</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" t="s">
         <v>133</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" t="s">
         <v>133</v>
       </c>
       <c r="D178" t="s">
@@ -9922,13 +10040,13 @@
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
+      <c r="A179" t="s">
         <v>112</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" t="s">
         <v>133</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" t="s">
         <v>133</v>
       </c>
       <c r="D179" t="s">
@@ -9972,13 +10090,13 @@
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
+      <c r="A180" t="s">
         <v>112</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" t="s">
         <v>133</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" t="s">
         <v>133</v>
       </c>
       <c r="D180" t="s">
@@ -10022,13 +10140,13 @@
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
+      <c r="A181" t="s">
         <v>112</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" t="s">
         <v>133</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" t="s">
         <v>133</v>
       </c>
       <c r="D181" t="s">
@@ -10072,13 +10190,13 @@
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
+      <c r="A182" t="s">
         <v>112</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" t="s">
         <v>136</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" t="s">
         <v>137</v>
       </c>
       <c r="D182" t="s">
@@ -10122,13 +10240,13 @@
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
+      <c r="A183" t="s">
         <v>112</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" t="s">
         <v>136</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" t="s">
         <v>136</v>
       </c>
       <c r="D183" t="s">
@@ -10172,13 +10290,13 @@
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
+      <c r="A184" t="s">
         <v>112</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" t="s">
         <v>136</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" t="s">
         <v>136</v>
       </c>
       <c r="D184" t="s">
@@ -10222,13 +10340,13 @@
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
+      <c r="A185" t="s">
         <v>112</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" t="s">
         <v>136</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" t="s">
         <v>136</v>
       </c>
       <c r="D185" t="s">
@@ -10272,13 +10390,13 @@
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+      <c r="A186" t="s">
         <v>112</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" t="s">
         <v>136</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" t="s">
         <v>136</v>
       </c>
       <c r="D186" t="s">
@@ -10322,13 +10440,13 @@
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" t="s">
         <v>112</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" t="s">
         <v>136</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" t="s">
         <v>136</v>
       </c>
       <c r="D187" t="s">
@@ -10372,13 +10490,13 @@
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
+      <c r="A188" t="s">
         <v>112</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" t="s">
         <v>136</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" t="s">
         <v>136</v>
       </c>
       <c r="D188" t="s">
@@ -10422,13 +10540,13 @@
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
+      <c r="A189" t="s">
         <v>112</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" t="s">
         <v>136</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" t="s">
         <v>136</v>
       </c>
       <c r="D189" t="s">
@@ -10472,13 +10590,13 @@
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
+      <c r="A190" t="s">
         <v>112</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" t="s">
         <v>144</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" t="s">
         <v>145</v>
       </c>
       <c r="D190" t="s">
@@ -10522,13 +10640,13 @@
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
+      <c r="A191" t="s">
         <v>112</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" t="s">
         <v>144</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" t="s">
         <v>144</v>
       </c>
       <c r="D191" t="s">
@@ -10572,13 +10690,13 @@
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+      <c r="A192" t="s">
         <v>112</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" t="s">
         <v>144</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" t="s">
         <v>144</v>
       </c>
       <c r="D192" t="s">
@@ -10622,13 +10740,13 @@
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+      <c r="A193" t="s">
         <v>112</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" t="s">
         <v>144</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" t="s">
         <v>144</v>
       </c>
       <c r="D193" t="s">
@@ -10672,13 +10790,13 @@
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="A194" t="s">
         <v>112</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" t="s">
         <v>144</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" t="s">
         <v>144</v>
       </c>
       <c r="D194" t="s">
@@ -10722,13 +10840,13 @@
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+      <c r="A195" t="s">
         <v>112</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" t="s">
         <v>149</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" t="s">
         <v>150</v>
       </c>
       <c r="D195" t="s">
@@ -10772,13 +10890,13 @@
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+      <c r="A196" t="s">
         <v>112</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" t="s">
         <v>149</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" t="s">
         <v>149</v>
       </c>
       <c r="D196" t="s">
@@ -10822,13 +10940,13 @@
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" t="s">
         <v>112</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" t="s">
         <v>149</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" t="s">
         <v>149</v>
       </c>
       <c r="D197" t="s">
@@ -10872,13 +10990,13 @@
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+      <c r="A198" t="s">
         <v>112</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" t="s">
         <v>149</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" t="s">
         <v>149</v>
       </c>
       <c r="D198" t="s">
@@ -10922,13 +11040,13 @@
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
+      <c r="A199" t="s">
         <v>112</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" t="s">
         <v>149</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" t="s">
         <v>149</v>
       </c>
       <c r="D199" t="s">
@@ -10972,13 +11090,13 @@
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+      <c r="A200" t="s">
         <v>112</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" t="s">
         <v>151</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C200" t="s">
         <v>142</v>
       </c>
       <c r="D200" t="s">
@@ -11022,13 +11140,13 @@
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
+      <c r="A201" t="s">
         <v>112</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" t="s">
         <v>151</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" t="s">
         <v>151</v>
       </c>
       <c r="D201" t="s">
@@ -11072,13 +11190,13 @@
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
+      <c r="A202" t="s">
         <v>112</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" t="s">
         <v>151</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" t="s">
         <v>151</v>
       </c>
       <c r="D202" t="s">
@@ -11122,13 +11240,13 @@
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
+      <c r="A203" t="s">
         <v>112</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" t="s">
         <v>151</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" t="s">
         <v>151</v>
       </c>
       <c r="D203" t="s">
@@ -11172,13 +11290,13 @@
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
+      <c r="A204" t="s">
         <v>112</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" t="s">
         <v>151</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" t="s">
         <v>151</v>
       </c>
       <c r="D204" t="s">
@@ -11222,13 +11340,13 @@
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
+      <c r="A205" t="s">
         <v>112</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" t="s">
         <v>153</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" t="s">
         <v>154</v>
       </c>
       <c r="D205" t="s">
@@ -11272,13 +11390,13 @@
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
+      <c r="A206" t="s">
         <v>112</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" t="s">
         <v>153</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" t="s">
         <v>153</v>
       </c>
       <c r="D206" t="s">
@@ -11322,13 +11440,13 @@
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="A207" t="s">
         <v>112</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" t="s">
         <v>156</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" t="s">
         <v>150</v>
       </c>
       <c r="D207" t="s">
@@ -11372,13 +11490,13 @@
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
+      <c r="A208" t="s">
         <v>112</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" t="s">
         <v>156</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" t="s">
         <v>156</v>
       </c>
       <c r="D208" t="s">
@@ -11422,13 +11540,13 @@
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
+      <c r="A209" t="s">
         <v>112</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" t="s">
         <v>156</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" t="s">
         <v>156</v>
       </c>
       <c r="D209" t="s">
@@ -11472,13 +11590,13 @@
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
+      <c r="A210" t="s">
         <v>112</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" t="s">
         <v>156</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" t="s">
         <v>156</v>
       </c>
       <c r="D210" t="s">
@@ -11522,13 +11640,13 @@
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
+      <c r="A211" t="s">
         <v>158</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" t="s">
         <v>159</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" t="s">
         <v>81</v>
       </c>
       <c r="D211" t="s">
@@ -11572,13 +11690,13 @@
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
+      <c r="A212" t="s">
         <v>158</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" t="s">
         <v>159</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" t="s">
         <v>159</v>
       </c>
       <c r="D212" t="s">
@@ -11622,13 +11740,13 @@
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
+      <c r="A213" t="s">
         <v>158</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" t="s">
         <v>160</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C213" t="s">
         <v>81</v>
       </c>
       <c r="D213" t="s">
@@ -11672,13 +11790,13 @@
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
+      <c r="A214" t="s">
         <v>158</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" t="s">
         <v>160</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" t="s">
         <v>159</v>
       </c>
       <c r="D214" t="s">
@@ -11722,13 +11840,13 @@
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
+      <c r="A215" t="s">
         <v>158</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" t="s">
         <v>161</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" t="s">
         <v>162</v>
       </c>
       <c r="D215" t="s">
@@ -11772,13 +11890,13 @@
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
+      <c r="A216" t="s">
         <v>158</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" t="s">
         <v>161</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" t="s">
         <v>161</v>
       </c>
       <c r="D216" t="s">
@@ -11822,13 +11940,13 @@
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="A217" t="s">
         <v>158</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" t="s">
         <v>161</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" t="s">
         <v>161</v>
       </c>
       <c r="D217" t="s">
@@ -11872,13 +11990,13 @@
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
+      <c r="A218" t="s">
         <v>158</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" t="s">
         <v>161</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C218" t="s">
         <v>161</v>
       </c>
       <c r="D218" t="s">
@@ -11922,13 +12040,13 @@
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+      <c r="A219" t="s">
         <v>158</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" t="s">
         <v>161</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" t="s">
         <v>161</v>
       </c>
       <c r="D219" t="s">
@@ -11972,13 +12090,13 @@
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+      <c r="A220" t="s">
         <v>158</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" t="s">
         <v>161</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C220" t="s">
         <v>161</v>
       </c>
       <c r="D220" t="s">
@@ -12022,13 +12140,13 @@
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+      <c r="A221" t="s">
         <v>158</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" t="s">
         <v>161</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" t="s">
         <v>161</v>
       </c>
       <c r="D221" t="s">
@@ -12072,13 +12190,13 @@
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+      <c r="A222" t="s">
         <v>158</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" t="s">
         <v>161</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" t="s">
         <v>161</v>
       </c>
       <c r="D222" t="s">
@@ -12122,13 +12240,13 @@
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
+      <c r="A223" t="s">
         <v>158</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" t="s">
         <v>169</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" t="s">
         <v>170</v>
       </c>
       <c r="D223" t="s">
@@ -12172,13 +12290,13 @@
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
+      <c r="A224" t="s">
         <v>158</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" t="s">
         <v>169</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" t="s">
         <v>169</v>
       </c>
       <c r="D224" t="s">
@@ -12222,13 +12340,13 @@
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
+      <c r="A225" t="s">
         <v>158</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" t="s">
         <v>169</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" t="s">
         <v>169</v>
       </c>
       <c r="D225" t="s">
@@ -12272,13 +12390,13 @@
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
+      <c r="A226" t="s">
         <v>158</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" t="s">
         <v>169</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C226" t="s">
         <v>169</v>
       </c>
       <c r="D226" t="s">
@@ -12322,13 +12440,13 @@
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
+      <c r="A227" t="s">
         <v>158</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" t="s">
         <v>169</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C227" t="s">
         <v>169</v>
       </c>
       <c r="D227" t="s">
@@ -12372,13 +12490,13 @@
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
+      <c r="A228" t="s">
         <v>158</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" t="s">
         <v>169</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C228" t="s">
         <v>169</v>
       </c>
       <c r="D228" t="s">
@@ -12422,13 +12540,13 @@
       </c>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
+      <c r="A229" t="s">
         <v>158</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" t="s">
         <v>169</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" t="s">
         <v>169</v>
       </c>
       <c r="D229" t="s">
@@ -12472,13 +12590,13 @@
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
+      <c r="A230" t="s">
         <v>158</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" t="s">
         <v>169</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" t="s">
         <v>169</v>
       </c>
       <c r="D230" t="s">
@@ -12522,13 +12640,13 @@
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
+      <c r="A231" t="s">
         <v>158</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" t="s">
         <v>175</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C231" t="s">
         <v>176</v>
       </c>
       <c r="D231" t="s">
@@ -12572,13 +12690,13 @@
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
+      <c r="A232" t="s">
         <v>158</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" t="s">
         <v>175</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" t="s">
         <v>175</v>
       </c>
       <c r="D232" t="s">
@@ -12622,13 +12740,13 @@
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
+      <c r="A233" t="s">
         <v>158</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" t="s">
         <v>175</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C233" t="s">
         <v>175</v>
       </c>
       <c r="D233" t="s">
@@ -12672,13 +12790,13 @@
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
+      <c r="A234" t="s">
         <v>158</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" t="s">
         <v>178</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" t="s">
         <v>81</v>
       </c>
       <c r="D234" t="s">
@@ -12722,13 +12840,13 @@
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
+      <c r="A235" t="s">
         <v>158</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" t="s">
         <v>178</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C235" t="s">
         <v>178</v>
       </c>
       <c r="D235" t="s">
@@ -12772,13 +12890,13 @@
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
+      <c r="A236" t="s">
         <v>158</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" t="s">
         <v>178</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C236" t="s">
         <v>178</v>
       </c>
       <c r="D236" t="s">
@@ -12822,13 +12940,13 @@
       </c>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
+      <c r="A237" t="s">
         <v>158</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" t="s">
         <v>178</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="C237" t="s">
         <v>178</v>
       </c>
       <c r="D237" t="s">
@@ -12872,13 +12990,13 @@
       </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
+      <c r="A238" t="s">
         <v>158</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" t="s">
         <v>178</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" t="s">
         <v>178</v>
       </c>
       <c r="D238" t="s">
@@ -12922,13 +13040,13 @@
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
+      <c r="A239" t="s">
         <v>158</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" t="s">
         <v>178</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C239" t="s">
         <v>178</v>
       </c>
       <c r="D239" t="s">
@@ -12972,13 +13090,13 @@
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
+      <c r="A240" t="s">
         <v>158</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" t="s">
         <v>180</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="C240" t="s">
         <v>81</v>
       </c>
       <c r="D240" t="s">
@@ -13022,14 +13140,14 @@
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
+      <c r="A241" t="s">
         <v>158</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" t="s">
         <v>180</v>
       </c>
-      <c r="C241" s="4" t="s">
-        <v>181</v>
+      <c r="C241" t="s">
+        <v>81</v>
       </c>
       <c r="D241" t="s">
         <v>182</v>
@@ -13072,14 +13190,14 @@
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
+      <c r="A242" t="s">
         <v>158</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" t="s">
         <v>180</v>
       </c>
-      <c r="C242" s="4" t="s">
-        <v>181</v>
+      <c r="C242" t="s">
+        <v>81</v>
       </c>
       <c r="D242" t="s">
         <v>183</v>
@@ -13122,14 +13240,14 @@
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
+      <c r="A243" t="s">
         <v>158</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" t="s">
         <v>180</v>
       </c>
-      <c r="C243" s="4" t="s">
-        <v>181</v>
+      <c r="C243" t="s">
+        <v>81</v>
       </c>
       <c r="D243" t="s">
         <v>81</v>
@@ -13172,13 +13290,13 @@
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
+      <c r="A244" t="s">
         <v>158</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" t="s">
         <v>184</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C244" t="s">
         <v>81</v>
       </c>
       <c r="D244" t="s">
@@ -13222,14 +13340,14 @@
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
+      <c r="A245" t="s">
         <v>158</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" t="s">
         <v>184</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>184</v>
+      <c r="C245" t="s">
+        <v>81</v>
       </c>
       <c r="D245" t="s">
         <v>185</v>
@@ -13272,14 +13390,14 @@
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
+      <c r="A246" t="s">
         <v>158</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" t="s">
         <v>184</v>
       </c>
-      <c r="C246" s="4" t="s">
-        <v>184</v>
+      <c r="C246" t="s">
+        <v>81</v>
       </c>
       <c r="D246" t="s">
         <v>186</v>
@@ -13322,14 +13440,14 @@
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
+      <c r="A247" t="s">
         <v>158</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" t="s">
         <v>184</v>
       </c>
-      <c r="C247" s="4" t="s">
-        <v>184</v>
+      <c r="C247" t="s">
+        <v>81</v>
       </c>
       <c r="D247" t="s">
         <v>176</v>
@@ -13372,14 +13490,14 @@
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
+      <c r="A248" t="s">
         <v>158</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" t="s">
         <v>184</v>
       </c>
-      <c r="C248" s="4" t="s">
-        <v>184</v>
+      <c r="C248" t="s">
+        <v>81</v>
       </c>
       <c r="D248" t="s">
         <v>187</v>
@@ -13422,14 +13540,14 @@
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
+      <c r="A249" t="s">
         <v>158</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" t="s">
         <v>184</v>
       </c>
-      <c r="C249" s="4" t="s">
-        <v>184</v>
+      <c r="C249" t="s">
+        <v>81</v>
       </c>
       <c r="D249" t="s">
         <v>188</v>
@@ -13472,14 +13590,14 @@
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
+      <c r="A250" t="s">
         <v>158</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" t="s">
         <v>184</v>
       </c>
-      <c r="C250" s="4" t="s">
-        <v>184</v>
+      <c r="C250" t="s">
+        <v>81</v>
       </c>
       <c r="D250" t="s">
         <v>25</v>
@@ -13522,13 +13640,13 @@
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
+      <c r="A251" t="s">
         <v>158</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" t="s">
         <v>181</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C251" t="s">
         <v>81</v>
       </c>
       <c r="D251" t="s">
@@ -13572,14 +13690,14 @@
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
+      <c r="A252" t="s">
         <v>158</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" t="s">
         <v>181</v>
       </c>
-      <c r="C252" s="4" t="s">
-        <v>181</v>
+      <c r="C252" t="s">
+        <v>81</v>
       </c>
       <c r="D252" t="s">
         <v>189</v>
@@ -13622,14 +13740,14 @@
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
+      <c r="A253" t="s">
         <v>158</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" t="s">
         <v>181</v>
       </c>
-      <c r="C253" s="4" t="s">
-        <v>181</v>
+      <c r="C253" t="s">
+        <v>81</v>
       </c>
       <c r="D253" t="s">
         <v>190</v>
@@ -13672,14 +13790,14 @@
       </c>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
+      <c r="A254" t="s">
         <v>158</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" t="s">
         <v>181</v>
       </c>
-      <c r="C254" s="4" t="s">
-        <v>181</v>
+      <c r="C254" t="s">
+        <v>81</v>
       </c>
       <c r="D254" t="s">
         <v>179</v>
@@ -13722,13 +13840,13 @@
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
+      <c r="A255" t="s">
         <v>191</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" t="s">
         <v>192</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C255" t="s">
         <v>135</v>
       </c>
       <c r="D255" t="s">
@@ -13772,14 +13890,14 @@
       </c>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
+      <c r="A256" t="s">
         <v>191</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" t="s">
         <v>192</v>
       </c>
-      <c r="C256" s="4" t="s">
-        <v>192</v>
+      <c r="C256" t="s">
+        <v>135</v>
       </c>
       <c r="D256" t="s">
         <v>73</v>
@@ -13822,14 +13940,14 @@
       </c>
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
+      <c r="A257" t="s">
         <v>191</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" t="s">
         <v>192</v>
       </c>
-      <c r="C257" s="4" t="s">
-        <v>192</v>
+      <c r="C257" t="s">
+        <v>135</v>
       </c>
       <c r="D257" t="s">
         <v>21</v>
@@ -13872,14 +13990,14 @@
       </c>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
+      <c r="A258" t="s">
         <v>191</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" t="s">
         <v>192</v>
       </c>
-      <c r="C258" s="4" t="s">
-        <v>192</v>
+      <c r="C258" t="s">
+        <v>135</v>
       </c>
       <c r="D258" t="s">
         <v>193</v>
@@ -13922,14 +14040,14 @@
       </c>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
+      <c r="A259" t="s">
         <v>191</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" t="s">
         <v>192</v>
       </c>
-      <c r="C259" s="4" t="s">
-        <v>192</v>
+      <c r="C259" t="s">
+        <v>135</v>
       </c>
       <c r="D259" t="s">
         <v>72</v>
@@ -13972,14 +14090,14 @@
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
+      <c r="A260" t="s">
         <v>191</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" t="s">
         <v>192</v>
       </c>
-      <c r="C260" s="4" t="s">
-        <v>192</v>
+      <c r="C260" t="s">
+        <v>135</v>
       </c>
       <c r="D260" t="s">
         <v>135</v>
@@ -14022,14 +14140,14 @@
       </c>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A261" s="4" t="s">
+      <c r="A261" t="s">
         <v>191</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" t="s">
         <v>192</v>
       </c>
-      <c r="C261" s="4" t="s">
-        <v>192</v>
+      <c r="C261" t="s">
+        <v>135</v>
       </c>
       <c r="D261" t="s">
         <v>27</v>
@@ -14072,14 +14190,14 @@
       </c>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
+      <c r="A262" t="s">
         <v>191</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" t="s">
         <v>192</v>
       </c>
-      <c r="C262" s="4" t="s">
-        <v>192</v>
+      <c r="C262" t="s">
+        <v>135</v>
       </c>
       <c r="D262" t="s">
         <v>40</v>
@@ -14122,13 +14240,13 @@
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
+      <c r="A263" t="s">
         <v>194</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" t="s">
         <v>195</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="C263" t="s">
         <v>76</v>
       </c>
       <c r="D263" t="s">
@@ -14172,14 +14290,14 @@
       </c>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
+      <c r="A264" t="s">
         <v>194</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" t="s">
         <v>195</v>
       </c>
-      <c r="C264" s="4" t="s">
-        <v>195</v>
+      <c r="C264" t="s">
+        <v>76</v>
       </c>
       <c r="D264" t="s">
         <v>74</v>
@@ -14222,14 +14340,14 @@
       </c>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
+      <c r="A265" t="s">
         <v>194</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" t="s">
         <v>195</v>
       </c>
-      <c r="C265" s="4" t="s">
-        <v>195</v>
+      <c r="C265" t="s">
+        <v>76</v>
       </c>
       <c r="D265" t="s">
         <v>76</v>
@@ -14272,13 +14390,13 @@
       </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
+      <c r="A266" t="s">
         <v>194</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" t="s">
         <v>196</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="C266" t="s">
         <v>25</v>
       </c>
       <c r="D266" t="s">
@@ -14322,14 +14440,14 @@
       </c>
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
+      <c r="A267" t="s">
         <v>194</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" t="s">
         <v>196</v>
       </c>
-      <c r="C267" s="4" t="s">
-        <v>196</v>
+      <c r="C267" t="s">
+        <v>25</v>
       </c>
       <c r="D267" t="s">
         <v>19</v>
@@ -14372,14 +14490,14 @@
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
+      <c r="A268" t="s">
         <v>194</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" t="s">
         <v>196</v>
       </c>
-      <c r="C268" s="4" t="s">
-        <v>196</v>
+      <c r="C268" t="s">
+        <v>25</v>
       </c>
       <c r="D268" t="s">
         <v>197</v>
@@ -14422,14 +14540,14 @@
       </c>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A269" s="4" t="s">
+      <c r="A269" t="s">
         <v>194</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" t="s">
         <v>196</v>
       </c>
-      <c r="C269" s="4" t="s">
-        <v>196</v>
+      <c r="C269" t="s">
+        <v>25</v>
       </c>
       <c r="D269" t="s">
         <v>25</v>
@@ -14472,14 +14590,14 @@
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A270" s="4" t="s">
+      <c r="A270" t="s">
         <v>194</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" t="s">
         <v>196</v>
       </c>
-      <c r="C270" s="4" t="s">
-        <v>196</v>
+      <c r="C270" t="s">
+        <v>25</v>
       </c>
       <c r="D270" t="s">
         <v>198</v>
@@ -14522,14 +14640,14 @@
       </c>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A271" s="4" t="s">
+      <c r="A271" t="s">
         <v>194</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" t="s">
         <v>196</v>
       </c>
-      <c r="C271" s="4" t="s">
-        <v>196</v>
+      <c r="C271" t="s">
+        <v>25</v>
       </c>
       <c r="D271" t="s">
         <v>199</v>
@@ -14572,13 +14690,13 @@
       </c>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A272" s="4" t="s">
+      <c r="A272" t="s">
         <v>200</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" t="s">
         <v>201</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C272" t="s">
         <v>21</v>
       </c>
       <c r="D272" t="s">
@@ -14622,13 +14740,13 @@
       </c>
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A273" s="4" t="s">
+      <c r="A273" t="s">
         <v>200</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" t="s">
         <v>201</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="C273" t="s">
         <v>201</v>
       </c>
       <c r="D273" t="s">
@@ -14672,10 +14790,13 @@
       </c>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A274" s="4" t="s">
+      <c r="A274" t="s">
         <v>200</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="B274" t="s">
+        <v>223</v>
+      </c>
+      <c r="C274" t="s">
         <v>21</v>
       </c>
       <c r="D274" t="s">
@@ -14719,10 +14840,13 @@
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
+      <c r="A275" t="s">
         <v>200</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="B275" t="s">
+        <v>224</v>
+      </c>
+      <c r="C275" t="s">
         <v>202</v>
       </c>
       <c r="D275" t="s">
@@ -14766,10 +14890,13 @@
       </c>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A276" s="4" t="s">
+      <c r="A276" t="s">
         <v>200</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="B276" t="s">
+        <v>225</v>
+      </c>
+      <c r="C276" t="s">
         <v>202</v>
       </c>
       <c r="D276" t="s">
@@ -14813,13 +14940,13 @@
       </c>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A277" s="4" t="s">
+      <c r="A277" t="s">
         <v>203</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" t="s">
         <v>204</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C277" t="s">
         <v>205</v>
       </c>
       <c r="D277" t="s">
@@ -14863,13 +14990,13 @@
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A278" s="4" t="s">
+      <c r="A278" t="s">
         <v>203</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" t="s">
         <v>204</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C278" t="s">
         <v>204</v>
       </c>
       <c r="D278" t="s">
@@ -14913,13 +15040,13 @@
       </c>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A279" s="4" t="s">
+      <c r="A279" t="s">
         <v>203</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" t="s">
         <v>204</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C279" t="s">
         <v>204</v>
       </c>
       <c r="D279" t="s">
@@ -14963,13 +15090,13 @@
       </c>
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A280" s="4" t="s">
+      <c r="A280" t="s">
         <v>203</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" t="s">
         <v>204</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="C280" t="s">
         <v>204</v>
       </c>
       <c r="D280" t="s">
@@ -15013,13 +15140,13 @@
       </c>
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A281" s="4" t="s">
+      <c r="A281" t="s">
         <v>203</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="B281" t="s">
         <v>204</v>
       </c>
-      <c r="C281" s="4" t="s">
+      <c r="C281" t="s">
         <v>204</v>
       </c>
       <c r="D281" t="s">
@@ -15063,13 +15190,13 @@
       </c>
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A282" s="4" t="s">
+      <c r="A282" t="s">
         <v>203</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="B282" t="s">
         <v>204</v>
       </c>
-      <c r="C282" s="4" t="s">
+      <c r="C282" t="s">
         <v>204</v>
       </c>
       <c r="D282" t="s">
@@ -15113,13 +15240,13 @@
       </c>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A283" s="4" t="s">
+      <c r="A283" t="s">
         <v>207</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B283" t="s">
         <v>208</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C283" t="s">
         <v>65</v>
       </c>
       <c r="D283" t="s">
@@ -15163,13 +15290,13 @@
       </c>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A284" s="4" t="s">
+      <c r="A284" t="s">
         <v>207</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="B284" t="s">
         <v>208</v>
       </c>
-      <c r="C284" s="4" t="s">
+      <c r="C284" t="s">
         <v>208</v>
       </c>
       <c r="D284" t="s">
@@ -15213,13 +15340,13 @@
       </c>
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
+      <c r="A285" t="s">
         <v>207</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="B285" t="s">
         <v>208</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C285" t="s">
         <v>208</v>
       </c>
       <c r="D285" t="s">
@@ -15263,13 +15390,13 @@
       </c>
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A286" s="4" t="s">
+      <c r="A286" t="s">
         <v>207</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B286" t="s">
         <v>208</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C286" t="s">
         <v>208</v>
       </c>
       <c r="D286" t="s">
@@ -15313,13 +15440,13 @@
       </c>
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
+      <c r="A287" t="s">
         <v>210</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B287" t="s">
         <v>211</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C287" t="s">
         <v>100</v>
       </c>
       <c r="D287" t="s">
@@ -15363,13 +15490,13 @@
       </c>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
+      <c r="A288" t="s">
         <v>210</v>
       </c>
-      <c r="B288" s="4" t="s">
+      <c r="B288" t="s">
         <v>211</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" t="s">
         <v>211</v>
       </c>
       <c r="D288" t="s">
@@ -15413,13 +15540,13 @@
       </c>
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
+      <c r="A289" t="s">
         <v>210</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B289" t="s">
         <v>211</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C289" t="s">
         <v>211</v>
       </c>
       <c r="D289" t="s">
@@ -15463,13 +15590,13 @@
       </c>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
+      <c r="A290" t="s">
         <v>212</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="B290" t="s">
         <v>213</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="C290" t="s">
         <v>135</v>
       </c>
       <c r="D290" t="s">
@@ -15513,13 +15640,13 @@
       </c>
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A291" s="4" t="s">
+      <c r="A291" t="s">
         <v>212</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B291" t="s">
         <v>213</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C291" t="s">
         <v>213</v>
       </c>
       <c r="D291" t="s">
@@ -15563,13 +15690,13 @@
       </c>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A292" s="4" t="s">
+      <c r="A292" t="s">
         <v>212</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B292" t="s">
         <v>213</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C292" t="s">
         <v>213</v>
       </c>
       <c r="D292" t="s">
@@ -15613,13 +15740,13 @@
       </c>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
+      <c r="A293" t="s">
         <v>212</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="B293" t="s">
         <v>213</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C293" t="s">
         <v>213</v>
       </c>
       <c r="D293" t="s">
@@ -15663,13 +15790,13 @@
       </c>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
+      <c r="A294" t="s">
         <v>212</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B294" t="s">
         <v>216</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C294" t="s">
         <v>21</v>
       </c>
       <c r="D294" t="s">
@@ -15713,13 +15840,13 @@
       </c>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A295" s="4" t="s">
+      <c r="A295" t="s">
         <v>212</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B295" t="s">
         <v>216</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="C295" t="s">
         <v>216</v>
       </c>
       <c r="D295" t="s">
@@ -15763,13 +15890,13 @@
       </c>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
+      <c r="A296" t="s">
         <v>212</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B296" t="s">
         <v>218</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C296" t="s">
         <v>21</v>
       </c>
       <c r="D296" t="s">
@@ -15813,13 +15940,13 @@
       </c>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
+      <c r="A297" t="s">
         <v>212</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B297" t="s">
         <v>218</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C297" t="s">
         <v>218</v>
       </c>
       <c r="D297" t="s">
@@ -15863,13 +15990,13 @@
       </c>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
+      <c r="A298" t="s">
         <v>212</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="B298" t="s">
         <v>218</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="C298" t="s">
         <v>218</v>
       </c>
       <c r="D298" t="s">
@@ -15913,22 +16040,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="141">
+  <mergeCells count="14">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
-    <mergeCell ref="A4:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A71"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A102"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="A72:A95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C94:C95"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
@@ -15937,136 +16055,14 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C4:C16"/>
-    <mergeCell ref="A272:A276"/>
-    <mergeCell ref="A277:A282"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="A287:A289"/>
-    <mergeCell ref="A290:A298"/>
-    <mergeCell ref="A103:A110"/>
-    <mergeCell ref="A137:A210"/>
-    <mergeCell ref="A211:A254"/>
-    <mergeCell ref="A255:A262"/>
-    <mergeCell ref="A111:A136"/>
-    <mergeCell ref="B76:B87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="A263:A271"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B215:B222"/>
-    <mergeCell ref="B223:B230"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="B200:B204"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="B207:B210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="B195:B199"/>
-    <mergeCell ref="B182:B189"/>
-    <mergeCell ref="B190:B194"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="B144:B159"/>
-    <mergeCell ref="B160:B170"/>
-    <mergeCell ref="B171:B175"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B65"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B296:B298"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="C294:C295"/>
-    <mergeCell ref="C296:C298"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="B234:B239"/>
-    <mergeCell ref="B240:B243"/>
-    <mergeCell ref="B244:B250"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="B255:B262"/>
-    <mergeCell ref="B266:B271"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="B277:B282"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="B287:B289"/>
-    <mergeCell ref="B290:B293"/>
-    <mergeCell ref="B294:B295"/>
-    <mergeCell ref="C251:C254"/>
-    <mergeCell ref="C255:C262"/>
-    <mergeCell ref="C263:C265"/>
-    <mergeCell ref="C266:C271"/>
-    <mergeCell ref="C17:C30"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C38:C48"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C65"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C76:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="C144:C159"/>
-    <mergeCell ref="C160:C170"/>
-    <mergeCell ref="C171:C175"/>
-    <mergeCell ref="C176:C181"/>
-    <mergeCell ref="C103:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C129"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="C277:C282"/>
-    <mergeCell ref="C215:C222"/>
-    <mergeCell ref="C223:C230"/>
-    <mergeCell ref="C231:C233"/>
-    <mergeCell ref="C234:C239"/>
-    <mergeCell ref="C240:C243"/>
-    <mergeCell ref="C244:C250"/>
-    <mergeCell ref="C182:C189"/>
-    <mergeCell ref="C190:C194"/>
-    <mergeCell ref="C195:C199"/>
-    <mergeCell ref="C200:C204"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="C207:C210"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="C213:C214"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E749FFFE0989D649B56E82565BC24D6D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1941bbcce4e679288056da6a6786e297">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c753c04-4c07-4dfb-b25e-c56059ca961d" xmlns:ns3="af8514bc-be7a-429c-a492-f298258d52a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="17841404dd05f148ab640c9eb1a4253a" ns2:_="" ns3:_="">
     <xsd:import namespace="5c753c04-4c07-4dfb-b25e-c56059ca961d"/>
@@ -16231,6 +16227,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -16241,23 +16243,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09ABDBA5-B861-4C7F-B5F7-353E359527E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="af8514bc-be7a-429c-a492-f298258d52a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5c753c04-4c07-4dfb-b25e-c56059ca961d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41708F13-A982-4911-B4E6-AD7676D3659D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16276,6 +16261,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09ABDBA5-B861-4C7F-B5F7-353E359527E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="af8514bc-be7a-429c-a492-f298258d52a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5c753c04-4c07-4dfb-b25e-c56059ca961d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2274D87C-672A-4E8A-B957-39CF092F5081}">
   <ds:schemaRefs>

--- a/node-central/equipos.xlsx
+++ b/node-central/equipos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\IPS%20Central\node-central\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3FD4BA-7526-423D-9B77-EB002C3BFCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7553796-A4E9-43DD-88BF-4196FF2ED8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="223">
   <si>
     <t>Sum(BillHrs)</t>
   </si>
@@ -642,9 +643,6 @@
     <t>SFT - Knowledge Transfer and Documentation</t>
   </si>
   <si>
-    <t>SFT - Support and New Features</t>
-  </si>
-  <si>
     <t>Successware</t>
   </si>
   <si>
@@ -699,19 +697,13 @@
     <t>Dorian Garcia</t>
   </si>
   <si>
-    <t>BRA</t>
-  </si>
-  <si>
-    <t>FSX</t>
-  </si>
-  <si>
-    <t>SFT - Knowledge Transfer and Documentation 2</t>
-  </si>
-  <si>
-    <t>SFT - Knowledge Transfer and Documentation 3</t>
-  </si>
-  <si>
-    <t>SFT - Knowledge Transfer and Documentation 4</t>
+    <t>SFT - Knowledge Transfer and Documentation-2</t>
+  </si>
+  <si>
+    <t>Bra_Cliente</t>
+  </si>
+  <si>
+    <t>FSX_Cliente</t>
   </si>
 </sst>
 </file>
@@ -721,7 +713,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#.0#############E+###"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,12 +725,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -791,11 +777,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -1139,107 +1126,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D259" sqref="D259"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1328125" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1252,44 +1238,44 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1339,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1347,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1389,7 +1375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1397,7 +1383,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1439,7 +1425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1447,7 +1433,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1489,7 +1475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1497,7 +1483,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1539,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1547,7 +1533,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -1589,7 +1575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1597,7 +1583,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1639,7 +1625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1647,7 +1633,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1689,7 +1675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1697,7 +1683,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1739,7 +1725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1747,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -1789,7 +1775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1797,7 +1783,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1839,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1847,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1889,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1897,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -1939,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1989,7 +1975,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1997,7 +1983,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -2039,7 +2025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2047,7 +2033,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
@@ -2089,7 +2075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2097,7 +2083,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -2139,7 +2125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2133,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -2189,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2197,7 +2183,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -2239,7 +2225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2247,7 +2233,7 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -2289,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2297,7 +2283,7 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -2339,7 +2325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2347,7 +2333,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -2389,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2397,7 +2383,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
@@ -2439,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2447,7 +2433,7 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
@@ -2489,7 +2475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2497,7 +2483,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
@@ -2539,7 +2525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2547,7 +2533,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
@@ -2589,7 +2575,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2597,7 +2583,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
@@ -2639,7 +2625,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2689,7 +2675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2697,7 +2683,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
         <v>44</v>
@@ -2739,7 +2725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2747,7 +2733,7 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
         <v>45</v>
@@ -2789,7 +2775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2797,7 +2783,7 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
         <v>46</v>
@@ -2839,7 +2825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2847,7 +2833,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
@@ -2889,7 +2875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2939,7 +2925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2989,7 +2975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3039,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -3047,7 +3033,7 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -3089,7 +3075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3097,7 +3083,7 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
         <v>52</v>
@@ -3139,7 +3125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -3147,7 +3133,7 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
         <v>53</v>
@@ -3189,7 +3175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3197,7 +3183,7 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
@@ -3239,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -3247,7 +3233,7 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
         <v>55</v>
@@ -3289,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -3297,7 +3283,7 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
         <v>51</v>
@@ -3339,7 +3325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3347,7 +3333,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
         <v>56</v>
@@ -3389,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -3397,7 +3383,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
         <v>57</v>
@@ -3439,7 +3425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3447,7 +3433,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
         <v>43</v>
@@ -3489,7 +3475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -3497,7 +3483,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
         <v>58</v>
@@ -3539,7 +3525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3589,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3597,7 +3583,7 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -3639,7 +3625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3647,7 +3633,7 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
         <v>55</v>
@@ -3689,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -3697,7 +3683,7 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -3739,7 +3725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -3747,7 +3733,7 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
         <v>51</v>
@@ -3789,7 +3775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -3797,7 +3783,7 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
         <v>60</v>
@@ -3839,7 +3825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -3889,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -3897,7 +3883,7 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -3939,7 +3925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -3947,7 +3933,7 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D57" t="s">
         <v>44</v>
@@ -3989,7 +3975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -3997,7 +3983,7 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
         <v>55</v>
@@ -4039,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -4047,7 +4033,7 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -4089,7 +4075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -4097,7 +4083,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -4139,7 +4125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -4147,7 +4133,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
         <v>51</v>
@@ -4189,7 +4175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -4197,7 +4183,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
         <v>62</v>
@@ -4239,7 +4225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4247,7 +4233,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
         <v>57</v>
@@ -4289,7 +4275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -4297,7 +4283,7 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
         <v>63</v>
@@ -4339,7 +4325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -4347,7 +4333,7 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
         <v>58</v>
@@ -4389,7 +4375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -4439,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -4447,7 +4433,7 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
         <v>44</v>
@@ -4489,7 +4475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -4497,7 +4483,7 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
         <v>66</v>
@@ -4539,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -4547,7 +4533,7 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
         <v>51</v>
@@ -4589,7 +4575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -4597,7 +4583,7 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
         <v>56</v>
@@ -4639,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -4647,7 +4633,7 @@
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
         <v>65</v>
@@ -4689,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>221</v>
       </c>
@@ -4739,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -4747,7 +4733,7 @@
         <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D73" t="s">
         <v>69</v>
@@ -4789,7 +4775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>221</v>
       </c>
@@ -4797,7 +4783,7 @@
         <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
         <v>70</v>
@@ -4839,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -4847,7 +4833,7 @@
         <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D75" t="s">
         <v>68</v>
@@ -4889,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>221</v>
       </c>
@@ -4939,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>221</v>
       </c>
@@ -4947,7 +4933,7 @@
         <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
@@ -4989,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>221</v>
       </c>
@@ -4997,7 +4983,7 @@
         <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D78" t="s">
         <v>74</v>
@@ -5039,7 +5025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>221</v>
       </c>
@@ -5047,7 +5033,7 @@
         <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D79" t="s">
         <v>52</v>
@@ -5089,7 +5075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>221</v>
       </c>
@@ -5097,7 +5083,7 @@
         <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D80" t="s">
         <v>75</v>
@@ -5139,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -5147,7 +5133,7 @@
         <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -5189,7 +5175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>221</v>
       </c>
@@ -5197,7 +5183,7 @@
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -5239,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>221</v>
       </c>
@@ -5247,7 +5233,7 @@
         <v>71</v>
       </c>
       <c r="C83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D83" t="s">
         <v>76</v>
@@ -5289,7 +5275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>221</v>
       </c>
@@ -5297,7 +5283,7 @@
         <v>71</v>
       </c>
       <c r="C84" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D84" t="s">
         <v>72</v>
@@ -5339,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>221</v>
       </c>
@@ -5347,7 +5333,7 @@
         <v>71</v>
       </c>
       <c r="C85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D85" t="s">
         <v>77</v>
@@ -5389,7 +5375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>221</v>
       </c>
@@ -5397,7 +5383,7 @@
         <v>71</v>
       </c>
       <c r="C86" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D86" t="s">
         <v>78</v>
@@ -5439,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>221</v>
       </c>
@@ -5447,7 +5433,7 @@
         <v>71</v>
       </c>
       <c r="C87" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D87" t="s">
         <v>27</v>
@@ -5489,7 +5475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>221</v>
       </c>
@@ -5539,7 +5525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>221</v>
       </c>
@@ -5547,7 +5533,7 @@
         <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D89" t="s">
         <v>80</v>
@@ -5589,7 +5575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>221</v>
       </c>
@@ -5597,7 +5583,7 @@
         <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D90" t="s">
         <v>81</v>
@@ -5639,7 +5625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>221</v>
       </c>
@@ -5647,7 +5633,7 @@
         <v>79</v>
       </c>
       <c r="C91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -5689,7 +5675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>221</v>
       </c>
@@ -5697,7 +5683,7 @@
         <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D92" t="s">
         <v>78</v>
@@ -5739,7 +5725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>221</v>
       </c>
@@ -5747,7 +5733,7 @@
         <v>79</v>
       </c>
       <c r="C93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D93" t="s">
         <v>82</v>
@@ -5789,7 +5775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>221</v>
       </c>
@@ -5839,7 +5825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -5847,7 +5833,7 @@
         <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D95" t="s">
         <v>84</v>
@@ -5889,7 +5875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -5939,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -5947,7 +5933,7 @@
         <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D97" t="s">
         <v>31</v>
@@ -5989,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -6039,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -6047,7 +6033,7 @@
         <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D99" t="s">
         <v>73</v>
@@ -6089,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -6097,7 +6083,7 @@
         <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D100" t="s">
         <v>89</v>
@@ -6139,7 +6125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -6147,7 +6133,7 @@
         <v>88</v>
       </c>
       <c r="C101" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D101" t="s">
         <v>90</v>
@@ -6189,7 +6175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -6197,7 +6183,7 @@
         <v>88</v>
       </c>
       <c r="C102" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D102" t="s">
         <v>27</v>
@@ -6239,7 +6225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -6289,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>91</v>
       </c>
@@ -6297,7 +6283,7 @@
         <v>92</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D104" t="s">
         <v>74</v>
@@ -6339,7 +6325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>91</v>
       </c>
@@ -6347,7 +6333,7 @@
         <v>92</v>
       </c>
       <c r="C105" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D105" t="s">
         <v>94</v>
@@ -6389,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>91</v>
       </c>
@@ -6397,7 +6383,7 @@
         <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D106" t="s">
         <v>95</v>
@@ -6439,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -6447,7 +6433,7 @@
         <v>92</v>
       </c>
       <c r="C107" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D107" t="s">
         <v>96</v>
@@ -6489,7 +6475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>91</v>
       </c>
@@ -6497,7 +6483,7 @@
         <v>92</v>
       </c>
       <c r="C108" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D108" t="s">
         <v>97</v>
@@ -6539,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>91</v>
       </c>
@@ -6547,7 +6533,7 @@
         <v>92</v>
       </c>
       <c r="C109" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D109" t="s">
         <v>93</v>
@@ -6589,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>91</v>
       </c>
@@ -6597,7 +6583,7 @@
         <v>92</v>
       </c>
       <c r="C110" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D110" t="s">
         <v>98</v>
@@ -6639,7 +6625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>222</v>
       </c>
@@ -6689,7 +6675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -6697,7 +6683,7 @@
         <v>99</v>
       </c>
       <c r="C112" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D112" t="s">
         <v>101</v>
@@ -6739,7 +6725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -6747,7 +6733,7 @@
         <v>99</v>
       </c>
       <c r="C113" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D113" t="s">
         <v>102</v>
@@ -6789,7 +6775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>222</v>
       </c>
@@ -6839,7 +6825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>222</v>
       </c>
@@ -6847,7 +6833,7 @@
         <v>103</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D115" t="s">
         <v>104</v>
@@ -6889,7 +6875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>222</v>
       </c>
@@ -6897,7 +6883,7 @@
         <v>103</v>
       </c>
       <c r="C116" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D116" t="s">
         <v>102</v>
@@ -6939,7 +6925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>222</v>
       </c>
@@ -6989,7 +6975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>222</v>
       </c>
@@ -6997,7 +6983,7 @@
         <v>105</v>
       </c>
       <c r="C118" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D118" t="s">
         <v>102</v>
@@ -7039,7 +7025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>222</v>
       </c>
@@ -7089,7 +7075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>222</v>
       </c>
@@ -7097,7 +7083,7 @@
         <v>106</v>
       </c>
       <c r="C120" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D120" t="s">
         <v>104</v>
@@ -7139,7 +7125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>222</v>
       </c>
@@ -7147,7 +7133,7 @@
         <v>106</v>
       </c>
       <c r="C121" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D121" t="s">
         <v>101</v>
@@ -7189,7 +7175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>222</v>
       </c>
@@ -7197,7 +7183,7 @@
         <v>106</v>
       </c>
       <c r="C122" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D122" t="s">
         <v>102</v>
@@ -7239,7 +7225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>222</v>
       </c>
@@ -7289,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>222</v>
       </c>
@@ -7297,7 +7283,7 @@
         <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D124" t="s">
         <v>102</v>
@@ -7339,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>222</v>
       </c>
@@ -7389,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>222</v>
       </c>
@@ -7397,7 +7383,7 @@
         <v>108</v>
       </c>
       <c r="C126" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D126" t="s">
         <v>100</v>
@@ -7439,7 +7425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>222</v>
       </c>
@@ -7447,7 +7433,7 @@
         <v>108</v>
       </c>
       <c r="C127" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D127" t="s">
         <v>104</v>
@@ -7489,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>222</v>
       </c>
@@ -7497,7 +7483,7 @@
         <v>108</v>
       </c>
       <c r="C128" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D128" t="s">
         <v>101</v>
@@ -7539,7 +7525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>222</v>
       </c>
@@ -7547,7 +7533,7 @@
         <v>108</v>
       </c>
       <c r="C129" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D129" t="s">
         <v>102</v>
@@ -7589,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>222</v>
       </c>
@@ -7639,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>222</v>
       </c>
@@ -7647,7 +7633,7 @@
         <v>109</v>
       </c>
       <c r="C131" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D131" t="s">
         <v>100</v>
@@ -7689,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>222</v>
       </c>
@@ -7739,7 +7725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>222</v>
       </c>
@@ -7747,7 +7733,7 @@
         <v>110</v>
       </c>
       <c r="C133" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D133" t="s">
         <v>43</v>
@@ -7789,7 +7775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>222</v>
       </c>
@@ -7839,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>222</v>
       </c>
@@ -7847,7 +7833,7 @@
         <v>111</v>
       </c>
       <c r="C135" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D135" t="s">
         <v>104</v>
@@ -7889,7 +7875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>222</v>
       </c>
@@ -7897,7 +7883,7 @@
         <v>111</v>
       </c>
       <c r="C136" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D136" t="s">
         <v>101</v>
@@ -7939,7 +7925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>112</v>
       </c>
@@ -7989,7 +7975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>112</v>
       </c>
@@ -7997,7 +7983,7 @@
         <v>113</v>
       </c>
       <c r="C138" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D138" t="s">
         <v>114</v>
@@ -8039,7 +8025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>112</v>
       </c>
@@ -8047,7 +8033,7 @@
         <v>113</v>
       </c>
       <c r="C139" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D139" t="s">
         <v>115</v>
@@ -8089,7 +8075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>112</v>
       </c>
@@ -8139,7 +8125,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -8147,7 +8133,7 @@
         <v>116</v>
       </c>
       <c r="C141" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D141" t="s">
         <v>118</v>
@@ -8189,7 +8175,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>112</v>
       </c>
@@ -8197,7 +8183,7 @@
         <v>116</v>
       </c>
       <c r="C142" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D142" t="s">
         <v>119</v>
@@ -8239,7 +8225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>112</v>
       </c>
@@ -8247,7 +8233,7 @@
         <v>116</v>
       </c>
       <c r="C143" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D143" t="s">
         <v>117</v>
@@ -8289,7 +8275,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>112</v>
       </c>
@@ -8339,7 +8325,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>112</v>
       </c>
@@ -8347,7 +8333,7 @@
         <v>120</v>
       </c>
       <c r="C145" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D145" t="s">
         <v>73</v>
@@ -8389,7 +8375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>112</v>
       </c>
@@ -8397,7 +8383,7 @@
         <v>120</v>
       </c>
       <c r="C146" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D146" t="s">
         <v>121</v>
@@ -8439,7 +8425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>112</v>
       </c>
@@ -8447,7 +8433,7 @@
         <v>120</v>
       </c>
       <c r="C147" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D147" t="s">
         <v>122</v>
@@ -8489,7 +8475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>112</v>
       </c>
@@ -8497,7 +8483,7 @@
         <v>120</v>
       </c>
       <c r="C148" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D148" t="s">
         <v>69</v>
@@ -8539,7 +8525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>112</v>
       </c>
@@ -8547,7 +8533,7 @@
         <v>120</v>
       </c>
       <c r="C149" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D149" t="s">
         <v>54</v>
@@ -8589,7 +8575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>112</v>
       </c>
@@ -8597,7 +8583,7 @@
         <v>120</v>
       </c>
       <c r="C150" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D150" t="s">
         <v>123</v>
@@ -8639,7 +8625,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>112</v>
       </c>
@@ -8647,7 +8633,7 @@
         <v>120</v>
       </c>
       <c r="C151" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D151" t="s">
         <v>30</v>
@@ -8689,7 +8675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>112</v>
       </c>
@@ -8697,7 +8683,7 @@
         <v>120</v>
       </c>
       <c r="C152" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D152" t="s">
         <v>56</v>
@@ -8739,7 +8725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -8747,7 +8733,7 @@
         <v>120</v>
       </c>
       <c r="C153" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D153" t="s">
         <v>124</v>
@@ -8789,7 +8775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -8797,7 +8783,7 @@
         <v>120</v>
       </c>
       <c r="C154" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D154" t="s">
         <v>34</v>
@@ -8839,7 +8825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>112</v>
       </c>
@@ -8847,7 +8833,7 @@
         <v>120</v>
       </c>
       <c r="C155" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D155" t="s">
         <v>78</v>
@@ -8889,7 +8875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>112</v>
       </c>
@@ -8897,7 +8883,7 @@
         <v>120</v>
       </c>
       <c r="C156" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D156" t="s">
         <v>25</v>
@@ -8939,7 +8925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -8947,7 +8933,7 @@
         <v>120</v>
       </c>
       <c r="C157" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D157" t="s">
         <v>84</v>
@@ -8989,7 +8975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>112</v>
       </c>
@@ -8997,7 +8983,7 @@
         <v>120</v>
       </c>
       <c r="C158" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D158" t="s">
         <v>125</v>
@@ -9039,7 +9025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>112</v>
       </c>
@@ -9047,7 +9033,7 @@
         <v>120</v>
       </c>
       <c r="C159" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D159" t="s">
         <v>39</v>
@@ -9089,7 +9075,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>112</v>
       </c>
@@ -9139,7 +9125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -9147,7 +9133,7 @@
         <v>126</v>
       </c>
       <c r="C161" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D161" t="s">
         <v>18</v>
@@ -9189,7 +9175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -9197,7 +9183,7 @@
         <v>126</v>
       </c>
       <c r="C162" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D162" t="s">
         <v>127</v>
@@ -9239,7 +9225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>112</v>
       </c>
@@ -9247,7 +9233,7 @@
         <v>126</v>
       </c>
       <c r="C163" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D163" t="s">
         <v>81</v>
@@ -9289,7 +9275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>112</v>
       </c>
@@ -9297,7 +9283,7 @@
         <v>126</v>
       </c>
       <c r="C164" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D164" t="s">
         <v>128</v>
@@ -9339,7 +9325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>112</v>
       </c>
@@ -9347,7 +9333,7 @@
         <v>126</v>
       </c>
       <c r="C165" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D165" t="s">
         <v>56</v>
@@ -9389,7 +9375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>112</v>
       </c>
@@ -9397,7 +9383,7 @@
         <v>126</v>
       </c>
       <c r="C166" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D166" t="s">
         <v>34</v>
@@ -9439,7 +9425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>112</v>
       </c>
@@ -9447,7 +9433,7 @@
         <v>126</v>
       </c>
       <c r="C167" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D167" t="s">
         <v>97</v>
@@ -9489,7 +9475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>112</v>
       </c>
@@ -9497,7 +9483,7 @@
         <v>126</v>
       </c>
       <c r="C168" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D168" t="s">
         <v>114</v>
@@ -9539,7 +9525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>112</v>
       </c>
@@ -9547,7 +9533,7 @@
         <v>126</v>
       </c>
       <c r="C169" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D169" t="s">
         <v>129</v>
@@ -9589,7 +9575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>112</v>
       </c>
@@ -9597,7 +9583,7 @@
         <v>126</v>
       </c>
       <c r="C170" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D170" t="s">
         <v>90</v>
@@ -9639,7 +9625,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>112</v>
       </c>
@@ -9689,7 +9675,7 @@
         <v>76.289999999999992</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>112</v>
       </c>
@@ -9697,7 +9683,7 @@
         <v>130</v>
       </c>
       <c r="C172" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D172" t="s">
         <v>81</v>
@@ -9739,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>112</v>
       </c>
@@ -9747,7 +9733,7 @@
         <v>130</v>
       </c>
       <c r="C173" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D173" t="s">
         <v>131</v>
@@ -9789,7 +9775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>112</v>
       </c>
@@ -9797,7 +9783,7 @@
         <v>130</v>
       </c>
       <c r="C174" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D174" t="s">
         <v>34</v>
@@ -9839,7 +9825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>112</v>
       </c>
@@ -9847,7 +9833,7 @@
         <v>130</v>
       </c>
       <c r="C175" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D175" t="s">
         <v>132</v>
@@ -9889,7 +9875,7 @@
         <v>49.29</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>112</v>
       </c>
@@ -9939,7 +9925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>112</v>
       </c>
@@ -9947,7 +9933,7 @@
         <v>133</v>
       </c>
       <c r="C177" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D177" t="s">
         <v>21</v>
@@ -9989,7 +9975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>112</v>
       </c>
@@ -9997,7 +9983,7 @@
         <v>133</v>
       </c>
       <c r="C178" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
         <v>134</v>
@@ -10039,7 +10025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>112</v>
       </c>
@@ -10047,7 +10033,7 @@
         <v>133</v>
       </c>
       <c r="C179" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D179" t="s">
         <v>96</v>
@@ -10089,7 +10075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>112</v>
       </c>
@@ -10097,7 +10083,7 @@
         <v>133</v>
       </c>
       <c r="C180" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D180" t="s">
         <v>135</v>
@@ -10139,7 +10125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>112</v>
       </c>
@@ -10147,7 +10133,7 @@
         <v>133</v>
       </c>
       <c r="C181" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D181" t="s">
         <v>39</v>
@@ -10189,7 +10175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>112</v>
       </c>
@@ -10239,7 +10225,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>112</v>
       </c>
@@ -10247,7 +10233,7 @@
         <v>136</v>
       </c>
       <c r="C183" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D183" t="s">
         <v>137</v>
@@ -10289,7 +10275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>112</v>
       </c>
@@ -10297,7 +10283,7 @@
         <v>136</v>
       </c>
       <c r="C184" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D184" t="s">
         <v>138</v>
@@ -10339,7 +10325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>112</v>
       </c>
@@ -10347,7 +10333,7 @@
         <v>136</v>
       </c>
       <c r="C185" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D185" t="s">
         <v>139</v>
@@ -10389,7 +10375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>112</v>
       </c>
@@ -10397,7 +10383,7 @@
         <v>136</v>
       </c>
       <c r="C186" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D186" t="s">
         <v>140</v>
@@ -10439,7 +10425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>112</v>
       </c>
@@ -10447,7 +10433,7 @@
         <v>136</v>
       </c>
       <c r="C187" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D187" t="s">
         <v>141</v>
@@ -10489,7 +10475,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>112</v>
       </c>
@@ -10497,7 +10483,7 @@
         <v>136</v>
       </c>
       <c r="C188" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D188" t="s">
         <v>142</v>
@@ -10539,7 +10525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>112</v>
       </c>
@@ -10547,7 +10533,7 @@
         <v>136</v>
       </c>
       <c r="C189" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D189" t="s">
         <v>143</v>
@@ -10589,7 +10575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>112</v>
       </c>
@@ -10639,7 +10625,7 @@
         <v>114.75</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>112</v>
       </c>
@@ -10647,7 +10633,7 @@
         <v>144</v>
       </c>
       <c r="C191" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D191" t="s">
         <v>145</v>
@@ -10689,7 +10675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>112</v>
       </c>
@@ -10697,7 +10683,7 @@
         <v>144</v>
       </c>
       <c r="C192" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D192" t="s">
         <v>146</v>
@@ -10739,7 +10725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>112</v>
       </c>
@@ -10747,7 +10733,7 @@
         <v>144</v>
       </c>
       <c r="C193" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D193" t="s">
         <v>147</v>
@@ -10789,7 +10775,7 @@
         <v>62.75</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>112</v>
       </c>
@@ -10797,7 +10783,7 @@
         <v>144</v>
       </c>
       <c r="C194" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D194" t="s">
         <v>148</v>
@@ -10839,7 +10825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>112</v>
       </c>
@@ -10889,7 +10875,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>112</v>
       </c>
@@ -10897,7 +10883,7 @@
         <v>149</v>
       </c>
       <c r="C196" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
@@ -10939,7 +10925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>112</v>
       </c>
@@ -10947,7 +10933,7 @@
         <v>149</v>
       </c>
       <c r="C197" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D197" t="s">
         <v>118</v>
@@ -10989,7 +10975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>112</v>
       </c>
@@ -10997,7 +10983,7 @@
         <v>149</v>
       </c>
       <c r="C198" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D198" t="s">
         <v>56</v>
@@ -11039,7 +11025,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>112</v>
       </c>
@@ -11047,7 +11033,7 @@
         <v>149</v>
       </c>
       <c r="C199" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D199" t="s">
         <v>115</v>
@@ -11089,7 +11075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>112</v>
       </c>
@@ -11139,7 +11125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>112</v>
       </c>
@@ -11147,7 +11133,7 @@
         <v>151</v>
       </c>
       <c r="C201" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D201" t="s">
         <v>140</v>
@@ -11189,7 +11175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>112</v>
       </c>
@@ -11197,7 +11183,7 @@
         <v>151</v>
       </c>
       <c r="C202" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D202" t="s">
         <v>142</v>
@@ -11239,7 +11225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>112</v>
       </c>
@@ -11247,7 +11233,7 @@
         <v>151</v>
       </c>
       <c r="C203" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D203" t="s">
         <v>143</v>
@@ -11289,7 +11275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>112</v>
       </c>
@@ -11297,7 +11283,7 @@
         <v>151</v>
       </c>
       <c r="C204" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D204" t="s">
         <v>152</v>
@@ -11339,7 +11325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>112</v>
       </c>
@@ -11389,7 +11375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>112</v>
       </c>
@@ -11397,7 +11383,7 @@
         <v>153</v>
       </c>
       <c r="C206" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D206" t="s">
         <v>155</v>
@@ -11439,7 +11425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>112</v>
       </c>
@@ -11489,7 +11475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>112</v>
       </c>
@@ -11497,7 +11483,7 @@
         <v>156</v>
       </c>
       <c r="C208" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D208" t="s">
         <v>139</v>
@@ -11539,7 +11525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>112</v>
       </c>
@@ -11547,7 +11533,7 @@
         <v>156</v>
       </c>
       <c r="C209" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D209" t="s">
         <v>157</v>
@@ -11589,7 +11575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>112</v>
       </c>
@@ -11597,7 +11583,7 @@
         <v>156</v>
       </c>
       <c r="C210" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D210" t="s">
         <v>141</v>
@@ -11639,7 +11625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>158</v>
       </c>
@@ -11689,7 +11675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>158</v>
       </c>
@@ -11697,7 +11683,7 @@
         <v>159</v>
       </c>
       <c r="C212" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="D212" t="s">
         <v>75</v>
@@ -11739,7 +11725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>158</v>
       </c>
@@ -11789,7 +11775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>158</v>
       </c>
@@ -11797,7 +11783,7 @@
         <v>160</v>
       </c>
       <c r="C214" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="D214" t="s">
         <v>56</v>
@@ -11839,7 +11825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>158</v>
       </c>
@@ -11889,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>158</v>
       </c>
@@ -11897,7 +11883,7 @@
         <v>161</v>
       </c>
       <c r="C216" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D216" t="s">
         <v>163</v>
@@ -11939,7 +11925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>158</v>
       </c>
@@ -11947,7 +11933,7 @@
         <v>161</v>
       </c>
       <c r="C217" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D217" t="s">
         <v>162</v>
@@ -11989,7 +11975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>158</v>
       </c>
@@ -11997,7 +11983,7 @@
         <v>161</v>
       </c>
       <c r="C218" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D218" t="s">
         <v>164</v>
@@ -12039,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>158</v>
       </c>
@@ -12047,7 +12033,7 @@
         <v>161</v>
       </c>
       <c r="C219" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D219" t="s">
         <v>165</v>
@@ -12089,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>158</v>
       </c>
@@ -12097,7 +12083,7 @@
         <v>161</v>
       </c>
       <c r="C220" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D220" t="s">
         <v>166</v>
@@ -12139,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>158</v>
       </c>
@@ -12147,7 +12133,7 @@
         <v>161</v>
       </c>
       <c r="C221" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D221" t="s">
         <v>167</v>
@@ -12189,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>158</v>
       </c>
@@ -12197,7 +12183,7 @@
         <v>161</v>
       </c>
       <c r="C222" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D222" t="s">
         <v>168</v>
@@ -12239,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>158</v>
       </c>
@@ -12289,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>158</v>
       </c>
@@ -12297,7 +12283,7 @@
         <v>169</v>
       </c>
       <c r="C224" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D224" t="s">
         <v>170</v>
@@ -12339,7 +12325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>158</v>
       </c>
@@ -12347,7 +12333,7 @@
         <v>169</v>
       </c>
       <c r="C225" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D225" t="s">
         <v>171</v>
@@ -12389,7 +12375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>158</v>
       </c>
@@ -12397,7 +12383,7 @@
         <v>169</v>
       </c>
       <c r="C226" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D226" t="s">
         <v>172</v>
@@ -12439,7 +12425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>158</v>
       </c>
@@ -12447,7 +12433,7 @@
         <v>169</v>
       </c>
       <c r="C227" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D227" t="s">
         <v>56</v>
@@ -12489,7 +12475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>158</v>
       </c>
@@ -12497,7 +12483,7 @@
         <v>169</v>
       </c>
       <c r="C228" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D228" t="s">
         <v>173</v>
@@ -12539,7 +12525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>158</v>
       </c>
@@ -12547,7 +12533,7 @@
         <v>169</v>
       </c>
       <c r="C229" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D229" t="s">
         <v>37</v>
@@ -12589,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>158</v>
       </c>
@@ -12597,7 +12583,7 @@
         <v>169</v>
       </c>
       <c r="C230" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D230" t="s">
         <v>174</v>
@@ -12639,7 +12625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>158</v>
       </c>
@@ -12689,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>158</v>
       </c>
@@ -12697,7 +12683,7 @@
         <v>175</v>
       </c>
       <c r="C232" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D232" t="s">
         <v>176</v>
@@ -12739,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>158</v>
       </c>
@@ -12747,7 +12733,7 @@
         <v>175</v>
       </c>
       <c r="C233" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D233" t="s">
         <v>177</v>
@@ -12789,14 +12775,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>158</v>
       </c>
       <c r="B234" t="s">
         <v>178</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D234" t="s">
@@ -12839,15 +12825,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>158</v>
       </c>
       <c r="B235" t="s">
         <v>178</v>
       </c>
-      <c r="C235" t="s">
-        <v>178</v>
+      <c r="C235" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D235" t="s">
         <v>81</v>
@@ -12889,15 +12875,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>158</v>
       </c>
       <c r="B236" t="s">
         <v>178</v>
       </c>
-      <c r="C236" t="s">
-        <v>178</v>
+      <c r="C236" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D236" t="s">
         <v>131</v>
@@ -12939,15 +12925,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>158</v>
       </c>
       <c r="B237" t="s">
         <v>178</v>
       </c>
-      <c r="C237" t="s">
-        <v>178</v>
+      <c r="C237" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D237" t="s">
         <v>165</v>
@@ -12989,15 +12975,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>158</v>
       </c>
       <c r="B238" t="s">
         <v>178</v>
       </c>
-      <c r="C238" t="s">
-        <v>178</v>
+      <c r="C238" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D238" t="s">
         <v>37</v>
@@ -13039,15 +13025,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>158</v>
       </c>
       <c r="B239" t="s">
         <v>178</v>
       </c>
-      <c r="C239" t="s">
-        <v>178</v>
+      <c r="C239" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D239" t="s">
         <v>179</v>
@@ -13089,14 +13075,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>158</v>
       </c>
       <c r="B240" t="s">
         <v>180</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D240" t="s">
@@ -13139,14 +13125,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>158</v>
       </c>
       <c r="B241" t="s">
         <v>180</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D241" t="s">
@@ -13189,14 +13175,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>158</v>
       </c>
       <c r="B242" t="s">
         <v>180</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D242" t="s">
@@ -13239,14 +13225,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>158</v>
       </c>
       <c r="B243" t="s">
         <v>180</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D243" t="s">
@@ -13289,14 +13275,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>158</v>
       </c>
       <c r="B244" t="s">
         <v>184</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D244" t="s">
@@ -13339,14 +13325,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>158</v>
       </c>
       <c r="B245" t="s">
         <v>184</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D245" t="s">
@@ -13389,14 +13375,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>158</v>
       </c>
       <c r="B246" t="s">
         <v>184</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D246" t="s">
@@ -13439,14 +13425,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>158</v>
       </c>
       <c r="B247" t="s">
         <v>184</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D247" t="s">
@@ -13489,14 +13475,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>158</v>
       </c>
       <c r="B248" t="s">
         <v>184</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D248" t="s">
@@ -13539,14 +13525,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>158</v>
       </c>
       <c r="B249" t="s">
         <v>184</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D249" t="s">
@@ -13589,14 +13575,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>158</v>
       </c>
       <c r="B250" t="s">
         <v>184</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D250" t="s">
@@ -13639,14 +13625,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>158</v>
       </c>
       <c r="B251" t="s">
         <v>181</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D251" t="s">
@@ -13689,14 +13675,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>158</v>
       </c>
       <c r="B252" t="s">
         <v>181</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D252" t="s">
@@ -13739,14 +13725,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>158</v>
       </c>
       <c r="B253" t="s">
         <v>181</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D253" t="s">
@@ -13789,14 +13775,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>158</v>
       </c>
       <c r="B254" t="s">
         <v>181</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D254" t="s">
@@ -13839,7 +13825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>191</v>
       </c>
@@ -13889,7 +13875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>191</v>
       </c>
@@ -13939,7 +13925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>191</v>
       </c>
@@ -13989,7 +13975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>191</v>
       </c>
@@ -14039,7 +14025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>191</v>
       </c>
@@ -14089,7 +14075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>191</v>
       </c>
@@ -14139,7 +14125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>191</v>
       </c>
@@ -14189,7 +14175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>191</v>
       </c>
@@ -14239,7 +14225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>194</v>
       </c>
@@ -14289,7 +14275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>194</v>
       </c>
@@ -14339,7 +14325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>194</v>
       </c>
@@ -14389,7 +14375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>194</v>
       </c>
@@ -14439,7 +14425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>194</v>
       </c>
@@ -14489,7 +14475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>194</v>
       </c>
@@ -14539,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>194</v>
       </c>
@@ -14589,7 +14575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>194</v>
       </c>
@@ -14639,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>194</v>
       </c>
@@ -14689,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>200</v>
       </c>
@@ -14739,7 +14725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>200</v>
       </c>
@@ -14747,7 +14733,7 @@
         <v>201</v>
       </c>
       <c r="C273" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="D273" t="s">
         <v>66</v>
@@ -14789,12 +14775,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>200</v>
       </c>
       <c r="B274" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C274" t="s">
         <v>21</v>
@@ -14839,15 +14825,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>200</v>
       </c>
       <c r="B275" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C275" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="D275" t="s">
         <v>21</v>
@@ -14889,15 +14875,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>200</v>
       </c>
       <c r="B276" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C276" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="D276" t="s">
         <v>66</v>
@@ -14939,15 +14925,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
+        <v>202</v>
+      </c>
+      <c r="B277" t="s">
         <v>203</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
         <v>204</v>
-      </c>
-      <c r="C277" t="s">
-        <v>205</v>
       </c>
       <c r="D277" t="s">
         <v>16</v>
@@ -14989,12 +14975,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
+        <v>202</v>
+      </c>
+      <c r="B278" t="s">
         <v>203</v>
-      </c>
-      <c r="B278" t="s">
-        <v>204</v>
       </c>
       <c r="C278" t="s">
         <v>204</v>
@@ -15039,12 +15025,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
+        <v>202</v>
+      </c>
+      <c r="B279" t="s">
         <v>203</v>
-      </c>
-      <c r="B279" t="s">
-        <v>204</v>
       </c>
       <c r="C279" t="s">
         <v>204</v>
@@ -15089,18 +15075,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
+        <v>202</v>
+      </c>
+      <c r="B280" t="s">
         <v>203</v>
-      </c>
-      <c r="B280" t="s">
-        <v>204</v>
       </c>
       <c r="C280" t="s">
         <v>204</v>
       </c>
       <c r="D280" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>17</v>
@@ -15139,12 +15125,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
+        <v>202</v>
+      </c>
+      <c r="B281" t="s">
         <v>203</v>
-      </c>
-      <c r="B281" t="s">
-        <v>204</v>
       </c>
       <c r="C281" t="s">
         <v>204</v>
@@ -15189,18 +15175,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
+        <v>202</v>
+      </c>
+      <c r="B282" t="s">
         <v>203</v>
-      </c>
-      <c r="B282" t="s">
-        <v>204</v>
       </c>
       <c r="C282" t="s">
         <v>204</v>
       </c>
       <c r="D282" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>17</v>
@@ -15239,12 +15225,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
+        <v>206</v>
+      </c>
+      <c r="B283" t="s">
         <v>207</v>
-      </c>
-      <c r="B283" t="s">
-        <v>208</v>
       </c>
       <c r="C283" t="s">
         <v>65</v>
@@ -15289,18 +15275,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
+        <v>206</v>
+      </c>
+      <c r="B284" t="s">
         <v>207</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
+        <v>65</v>
+      </c>
+      <c r="D284" t="s">
         <v>208</v>
-      </c>
-      <c r="C284" t="s">
-        <v>208</v>
-      </c>
-      <c r="D284" t="s">
-        <v>209</v>
       </c>
       <c r="E284">
         <v>160</v>
@@ -15339,15 +15325,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
+        <v>206</v>
+      </c>
+      <c r="B285" t="s">
         <v>207</v>
       </c>
-      <c r="B285" t="s">
-        <v>208</v>
-      </c>
       <c r="C285" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="D285" t="s">
         <v>51</v>
@@ -15389,15 +15375,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
+        <v>206</v>
+      </c>
+      <c r="B286" t="s">
         <v>207</v>
       </c>
-      <c r="B286" t="s">
-        <v>208</v>
-      </c>
       <c r="C286" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="D286" t="s">
         <v>65</v>
@@ -15439,12 +15425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
+        <v>209</v>
+      </c>
+      <c r="B287" t="s">
         <v>210</v>
-      </c>
-      <c r="B287" t="s">
-        <v>211</v>
       </c>
       <c r="C287" t="s">
         <v>100</v>
@@ -15489,15 +15475,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
+        <v>209</v>
+      </c>
+      <c r="B288" t="s">
         <v>210</v>
       </c>
-      <c r="B288" t="s">
-        <v>211</v>
-      </c>
       <c r="C288" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="D288" t="s">
         <v>20</v>
@@ -15539,15 +15525,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
+        <v>209</v>
+      </c>
+      <c r="B289" t="s">
         <v>210</v>
       </c>
-      <c r="B289" t="s">
-        <v>211</v>
-      </c>
       <c r="C289" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="D289" t="s">
         <v>82</v>
@@ -15589,12 +15575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
+        <v>211</v>
+      </c>
+      <c r="B290" t="s">
         <v>212</v>
-      </c>
-      <c r="B290" t="s">
-        <v>213</v>
       </c>
       <c r="C290" t="s">
         <v>135</v>
@@ -15639,18 +15625,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
+        <v>211</v>
+      </c>
+      <c r="B291" t="s">
         <v>212</v>
       </c>
-      <c r="B291" t="s">
+      <c r="C291" t="s">
+        <v>135</v>
+      </c>
+      <c r="D291" t="s">
         <v>213</v>
-      </c>
-      <c r="C291" t="s">
-        <v>213</v>
-      </c>
-      <c r="D291" t="s">
-        <v>214</v>
       </c>
       <c r="E291">
         <v>168</v>
@@ -15689,18 +15675,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
+        <v>211</v>
+      </c>
+      <c r="B292" t="s">
         <v>212</v>
       </c>
-      <c r="B292" t="s">
-        <v>213</v>
-      </c>
       <c r="C292" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="D292" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E292">
         <v>168</v>
@@ -15739,15 +15725,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
+        <v>211</v>
+      </c>
+      <c r="B293" t="s">
         <v>212</v>
       </c>
-      <c r="B293" t="s">
-        <v>213</v>
-      </c>
       <c r="C293" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="D293" t="s">
         <v>135</v>
@@ -15789,12 +15775,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B294" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C294" t="s">
         <v>21</v>
@@ -15839,18 +15825,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B295" t="s">
+        <v>215</v>
+      </c>
+      <c r="C295" t="s">
+        <v>21</v>
+      </c>
+      <c r="D295" t="s">
         <v>216</v>
-      </c>
-      <c r="C295" t="s">
-        <v>216</v>
-      </c>
-      <c r="D295" t="s">
-        <v>217</v>
       </c>
       <c r="E295">
         <v>144</v>
@@ -15889,12 +15875,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B296" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C296" t="s">
         <v>21</v>
@@ -15939,18 +15925,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B297" t="s">
+        <v>217</v>
+      </c>
+      <c r="C297" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" t="s">
         <v>218</v>
-      </c>
-      <c r="C297" t="s">
-        <v>218</v>
-      </c>
-      <c r="D297" t="s">
-        <v>219</v>
       </c>
       <c r="E297">
         <v>152</v>
@@ -15989,18 +15975,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B298" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C298" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="D298" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E298">
         <v>168</v>
@@ -16056,9 +16042,8 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -16264,16 +16249,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09ABDBA5-B861-4C7F-B5F7-353E359527E4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5c753c04-4c07-4dfb-b25e-c56059ca961d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="af8514bc-be7a-429c-a492-f298258d52a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5c753c04-4c07-4dfb-b25e-c56059ca961d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/node-central/equipos.xlsx
+++ b/node-central/equipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7553796-A4E9-43DD-88BF-4196FF2ED8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27541AB3-6AAC-46DC-B9BF-D57A2565B30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
@@ -16048,6 +16048,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E749FFFE0989D649B56E82565BC24D6D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1941bbcce4e679288056da6a6786e297">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c753c04-4c07-4dfb-b25e-c56059ca961d" xmlns:ns3="af8514bc-be7a-429c-a492-f298258d52a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="17841404dd05f148ab640c9eb1a4253a" ns2:_="" ns3:_="">
     <xsd:import namespace="5c753c04-4c07-4dfb-b25e-c56059ca961d"/>
@@ -16212,36 +16227,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41708F13-A982-4911-B4E6-AD7676D3659D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2274D87C-672A-4E8A-B957-39CF092F5081}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5c753c04-4c07-4dfb-b25e-c56059ca961d"/>
-    <ds:schemaRef ds:uri="af8514bc-be7a-429c-a492-f298258d52a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16264,9 +16253,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2274D87C-672A-4E8A-B957-39CF092F5081}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41708F13-A982-4911-B4E6-AD7676D3659D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5c753c04-4c07-4dfb-b25e-c56059ca961d"/>
+    <ds:schemaRef ds:uri="af8514bc-be7a-429c-a492-f298258d52a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/node-central/equipos.xlsx
+++ b/node-central/equipos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27541AB3-6AAC-46DC-B9BF-D57A2565B30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67B2A5D-3967-4484-8C36-08F8A2509F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A298" sqref="A298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16048,21 +16048,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E749FFFE0989D649B56E82565BC24D6D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1941bbcce4e679288056da6a6786e297">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c753c04-4c07-4dfb-b25e-c56059ca961d" xmlns:ns3="af8514bc-be7a-429c-a492-f298258d52a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="17841404dd05f148ab640c9eb1a4253a" ns2:_="" ns3:_="">
     <xsd:import namespace="5c753c04-4c07-4dfb-b25e-c56059ca961d"/>
@@ -16227,10 +16212,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2274D87C-672A-4E8A-B957-39CF092F5081}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41708F13-A982-4911-B4E6-AD7676D3659D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5c753c04-4c07-4dfb-b25e-c56059ca961d"/>
+    <ds:schemaRef ds:uri="af8514bc-be7a-429c-a492-f298258d52a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16253,20 +16264,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41708F13-A982-4911-B4E6-AD7676D3659D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2274D87C-672A-4E8A-B957-39CF092F5081}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5c753c04-4c07-4dfb-b25e-c56059ca961d"/>
-    <ds:schemaRef ds:uri="af8514bc-be7a-429c-a492-f298258d52a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>